--- a/美智医疗/输血申请&收费项目.xlsx
+++ b/美智医疗/输血申请&收费项目.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BA05EC8E-BBDE-D24B-B644-A205D2D4DD72}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="输血申请单" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="480">
   <si>
     <t>是否医院现有接口字段</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,1721 +83,1822 @@
     <t>收费标志</t>
   </si>
   <si>
+    <t>输入科室</t>
+  </si>
+  <si>
+    <t>输入操作员</t>
+  </si>
+  <si>
+    <t>输入时间</t>
+  </si>
+  <si>
+    <t>住院流水号</t>
+  </si>
+  <si>
+    <t>费用日期</t>
+  </si>
+  <si>
+    <t>项目数量</t>
+  </si>
+  <si>
+    <t>辅诊科室编码</t>
+  </si>
+  <si>
+    <t>HIS医嘱标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医嘱类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医嘱内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备血人编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备血人名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取血人编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取血人人名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输血人编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XPath路径说明：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recipe_id</t>
+  </si>
+  <si>
+    <t>recipe_date</t>
+  </si>
+  <si>
+    <t>recipe_drid</t>
+  </si>
+  <si>
+    <t>recipe_amount</t>
+  </si>
+  <si>
+    <t>execute_deptid</t>
+  </si>
+  <si>
+    <t>execute_person</t>
+  </si>
+  <si>
+    <t>execute_time</t>
+  </si>
+  <si>
+    <t>dismissed_flag</t>
+  </si>
+  <si>
+    <t>dismissed_operator</t>
+  </si>
+  <si>
+    <t>dismissed_time</t>
+  </si>
+  <si>
+    <t>recl</t>
+  </si>
+  <si>
+    <t>payment_flag</t>
+  </si>
+  <si>
+    <t>injury_flag</t>
+  </si>
+  <si>
+    <t>record_deptid</t>
+  </si>
+  <si>
+    <t>record_inputter</t>
+  </si>
+  <si>
+    <t>record_time</t>
+  </si>
+  <si>
+    <t>inpatient_flow_id</t>
+  </si>
+  <si>
+    <t>charge_date</t>
+  </si>
+  <si>
+    <t>item_num</t>
+  </si>
+  <si>
+    <t>requisition_dept</t>
+  </si>
+  <si>
+    <t>inputter</t>
+  </si>
+  <si>
+    <t>yi_zhu_id</t>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/id/item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/effectiveTime/any</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/pertinentInformation[1]/observation/code/displayName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/component2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用血紧急程度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/priorityCode/displayName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/expectedUseTime/any</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/subject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/verifier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/reason[2]/observation/code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输血目的描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/pertinentInformation[2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/component2/supplyRequest/code/displayName</t>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/pertinentInformation[5]/observation/code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CD类型检验项目编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/pertinentInformation[5]/observation/effectiveTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/pertinentInformation[5]/observation/value/displayName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CD类型检验项目检验结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST类型检验项目编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST类型检验项目检验结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/pertinentInformation[6]/observation/code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/pertinentInformation[6]/observation/value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PQ类型检验项目编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PQ类型检验项目检验结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/pertinentInformation[7]/observation/code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/pertinentInformation[7]/observation/value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就诊状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/componentOf1/encounter/effectiveTime/any</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/componentOf1/encounter/id/item[2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医疗机构代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医疗机构名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请日期</t>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/unitPriceAmt/numerator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/reason/organizer/id/item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/id/item[3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/id/item[4]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/effectiveTime/any</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收款日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/id/item[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收据号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/id/item[2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红冲账单流水号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账单码编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/code/displayName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账单码名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账单日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/effectiveTime/any</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/netAmt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账单金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账单金额单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV03/controlActProcess/subject/financialTransaction/reason/chargeGroup/netAmt</t>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/id/item[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/id/item[2]/@extension</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/code/displayName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用状态名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/effectiveTime/any</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目收费时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/reason/organizer/code/displayName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处方类别名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医嘱号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/reason/organizer/component/substanceAdministration/code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医嘱类别编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/reason/organizer/component/substanceAdministration/code/displayName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医嘱类别名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包装序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/reason/organizer/component/substanceAdministration/consumable/manufacturedProduct/id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/reason/organizer/component/substanceAdministration/consumable/manufacturedProduct/manufacturedProduct/code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/reason/organizer/component/substanceAdministration/consumable/manufacturedProduct/manufacturedProduct/code/displayName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用编码名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/reason/organizer/component/substanceAdministration/consumable/manufacturedProduct/subjectOf3/policy/code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医保类别编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/reason/organizer/component/substanceAdministration/consumable/manufacturedProduct/subjectOf3/policy/code/displayName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医保类别名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/coverage[1]/policyOrProgram/code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目分组编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/coverage[1]/policyOrProgram/code/displayName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目分组名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/coverage[2]/policyOrProgram/code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费别编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/coverage[2]/policyOrProgram/code/displayName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费别明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/pertinentInformation/encounter/location/serviceDeliveryLocation/serviceProviderOrganization/id/item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/pertinentInformation/encounter/location/serviceDeliveryLocation/serviceProviderOrganization/name/item/part</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用执行科室编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用执行科室名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/pertinentInformation/encounter/authorization/consent/performer/assignedEntity/id/item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用确认人编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用确认人姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/pertinentInformation/encounter/authorization/consent/performer/assignedEntity/assignedPerson/name/item/part</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/postingTo2/account/component[1]/account/id/item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医保号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/postingTo2/account/component[1]/account/code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/postingTo2/account/component[1]/account/code/displayName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医疗付费方式名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/postingTo2/account/component[1]/account/balanceAmt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医保付费方式编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/postingTo2/account/component[2]/account/balanceAmt</t>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/postingTo2/account/component[2]/account/id/item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医保外卡号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/postingTo2/account/component[2]/account/code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付费类别编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/postingTo2/account/component[2]/account/code/displayName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医疗付费金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医疗付费金额单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医疗付费方式名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/postingTo2/account/component[2]/account/balanceAmt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/postingTo2/account/component[3]/account/balanceAmt</t>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/creationTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/interactionId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交互ID extension="FIAB_IN020001UV02"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/processingCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息发送系统状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/processingModeCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息处理模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/acceptAckCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息应答</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/receiver/device/id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息接受者ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/sender/device/id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息发送者ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息封装内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息交互类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封装对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用交易</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/id/item[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/author</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收款人信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/author/guarantorRole/id/item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收款人编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/author/guarantorRole/guarantorPerson/name/item/part</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收款人姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账单信息（可循环）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/postingTo2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/postingTo2/account/component[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医保内金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/postingTo2/account/component[2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医保外金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用状态码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/unitQuantity/numerator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/reason</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用项目信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处方号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/reason/organizer/component/substanceAdministration/id/item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/coverage[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收费项目分组信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/coverage[2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费别信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/pertinentInformation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用相关信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/pertinentInformation/encounter/specialCourtesiesCode/item</t>
+  </si>
+  <si>
+    <t>婴儿标记信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/pertinentInformation/encounter/authorization/consent/author/responsibleParty/agentOrganization/id/item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用申请科室编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/pertinentInformation/encounter/authorization/consent/author/responsibleParty/agentOrganization/name/item/part</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用申请科室名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/pertinentInformation/encounter/authorization/consent/author/responsibleParty/representedPerson/id/item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用申请人编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/pertinentInformation/encounter/authorization/consent/author/responsibleParty/representedPerson/name/item/part</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用申请人名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_orderno</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>charge_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>charge_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV03/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/unitQuantity/numerator</t>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV03/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/unitPriceAmt/numerator</t>
+  </si>
+  <si>
+    <t>单价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单价单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>charge_unit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_amount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/creationTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/interactionId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交互ID extension="POOR_IN200901UV24"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/processingCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息发送系统的状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/processingModeCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/acceptAckCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/receiver/device/id/item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接受者ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/sender/device/id/item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送者ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息交互类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封装对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请单信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/text</t>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病人信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>患者ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/subject/patient/id/item[2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/subject/patient/id/item[3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就诊号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>域ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/subject/patient/id/item[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/subject/patient/addr/item/part[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病区编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/subject/patient/addr/item/part[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病区名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/subject/patient/addr/item/part[2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>床号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/subject/patient/telecom/item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/subject/patient/confidentialityCode/item/displayName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病人信息隐私级别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/subject/patient/patientPerson/id/item[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/subject/patient/patientPerson/id/item[2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/subject/patient/patientPerson/name/item/part</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/subject/patient/patientPerson/administrativeGenderCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/subject/patient/patientPerson/birthTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出生日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/subject/patient/patientPerson/addr/item/part</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/subject/patient/patientPerson/maritalStatusCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>婚姻状况编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/subject/patient/patientPerson/contactParty/contactPerson/name/item/part</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/subject/patient/patientPerson/birthPlace/addr/part</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出生地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病人科室编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/subject/patient/providerOrganization/name/item/part</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病人科室名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/subject/patient/providerOrganization/id/item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/subject/patient/coveredPartyOf/coverageRecord/component/policyOrProgram/code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/author</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/author/assignedEntity/id/item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请医师编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/author/assignedEntity/assignedPerson/name/item/part</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请医师名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/author/assignedEntity/representedOrganization/id/item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请科室编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recipe_deptid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/author/assignedEntity/representedOrganization/name/item/part</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请科室名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/verifier/time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/verifier/assignedEntity/id/item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认人编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/verifier/assignedEntity/assignedPerson/name/item/part</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认人姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/reason[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/reason[1]/observation/code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诊断类别编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/reason[1]/observation/code/displayName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诊断类别名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/reason[1]/observation/statusCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态，模型中要求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/reason[1]/observation/value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疾病编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/reason[1]/observation/value/displayName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疾病名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治疗目的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/reason[2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输血目的编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/reason[2]/observation/value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临床路径项目编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/pertinentInformation[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临床路径项目序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临床路径项目编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临床路径项目序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/pertinentInformation[2]/observation/code/displayName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/pertinentInformation[3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务操作时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/pertinentInformation[3]/observation/value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务操作时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/pertinentInformation[4]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病史及自身输血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/pertinentInformation[4]/observation/code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布尔项目编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/pertinentInformation[4]/observation/text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/pertinentInformation[5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CD类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CD类型检验项目验血日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/pertinentInformation[6]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/pertinentInformation[7]</t>
+  </si>
+  <si>
+    <t>PQ类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请血液信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/component2/supplyRequest/id/item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医嘱号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/component2/supplyRequest/code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输血品种代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输血品种名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/component2/supplyRequest/quantity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/component2/supplyRequest/pertinentInformation[1]/observation/value/displayName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请ABO血型编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/component2/supplyRequest/pertinentInformation[2]/observation/value/displayName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请RH血型编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/component2/supplyRequest/pertinentInformation[3]/observation/value/displayName</t>
+  </si>
+  <si>
+    <t>血液特殊要求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/componentOf1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就诊信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/componentOf1/encounter/id/item[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就诊次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就诊流水号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/componentOf1/encounter/code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就诊类别编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/componentOf1/encounter/code/displayName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就诊类别名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/componentOf1/encounter/statusCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就诊/住院时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>patient_cardno</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emergency_flag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>急诊标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>register_trade_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clinical_deptid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>priorityCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expectedUseTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用血时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>telecom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>confidentialityCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>administrativeGenderCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>birthTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maritalStatusCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contactPerson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>birthPlace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statusCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effectiveTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clinical_deptname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wholeOrganization_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>patientPerson_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wholeOrganization_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recipe_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recipe_deptname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>verifier_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>verifier_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临床诊断 1..n可多项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>observation_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>observation_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>observation_statuscode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>supplyRequest_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>supplyRequest_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>supplyRequest_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>supplyRequest_quantityvalue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effectiveTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guarantorPerson_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guarantorPerson_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recipe_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recipe_text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证号  root="1.2.156.112635.1.2.1.9"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>献血证号  root="1.2.156.112635.1.2.1.10"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>supplyRequest_quantityunit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/component3/supplyRequest/quantity</t>
+  </si>
+  <si>
+    <t>申请剂量  value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剂量单位  unit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/id/item[2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">病人ID  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就诊号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就诊次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">域ID </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>院区编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>院区名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/reason/organizer/component/substanceAdministration/effectiveTime/any/@value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和医嘱号同一个xpath，因为收费是针对单个医嘱的，一个医嘱对应唯一一个申请单号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建议不再申请中，属于撤销消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV24/controlActProcess/subject/supplyRequest/component2/supplyRequest/performer/assignedEntity/id/item/@extension</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV24/controlActProcess/subject/supplyRequest/component2/supplyRequest/performer/assignedEntity/representedOrganization/name/item/part/@value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行时间在申请时是未知的，建议去掉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV24/controlActProcess/subject/supplyRequest/component2/supplyRequest/pertinentInformation[4]/observation/value/@value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>工伤标志</t>
-  </si>
-  <si>
-    <t>输入科室</t>
-  </si>
-  <si>
-    <t>输入操作员</t>
-  </si>
-  <si>
-    <t>输入时间</t>
-  </si>
-  <si>
-    <t>住院流水号</t>
-  </si>
-  <si>
-    <t>费用日期</t>
-  </si>
-  <si>
-    <t>项目数量</t>
-  </si>
-  <si>
-    <t>辅诊科室编码</t>
-  </si>
-  <si>
-    <t>HIS医嘱标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医嘱类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医嘱内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备血人编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备血人名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取血人编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取血人人名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输血人编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XPath路径说明：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>recipe_id</t>
-  </si>
-  <si>
-    <t>recipe_date</t>
-  </si>
-  <si>
-    <t>recipe_drid</t>
-  </si>
-  <si>
-    <t>recipe_amount</t>
-  </si>
-  <si>
-    <t>execute_deptid</t>
-  </si>
-  <si>
-    <t>execute_person</t>
-  </si>
-  <si>
-    <t>execute_time</t>
-  </si>
-  <si>
-    <t>dismissed_flag</t>
-  </si>
-  <si>
-    <t>dismissed_operator</t>
-  </si>
-  <si>
-    <t>dismissed_time</t>
-  </si>
-  <si>
-    <t>recl</t>
-  </si>
-  <si>
-    <t>payment_flag</t>
-  </si>
-  <si>
-    <t>injury_flag</t>
-  </si>
-  <si>
-    <t>record_deptid</t>
-  </si>
-  <si>
-    <t>record_inputter</t>
-  </si>
-  <si>
-    <t>record_time</t>
-  </si>
-  <si>
-    <t>inpatient_flow_id</t>
-  </si>
-  <si>
-    <t>charge_date</t>
-  </si>
-  <si>
-    <t>item_num</t>
-  </si>
-  <si>
-    <t>requisition_dept</t>
-  </si>
-  <si>
-    <t>inputter</t>
-  </si>
-  <si>
-    <t>yi_zhu_id</t>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/id/item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/effectiveTime/any</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/pertinentInformation[1]/observation/code/displayName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/component2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用血紧急程度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/priorityCode/displayName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/expectedUseTime/any</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/subject</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/verifier</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/reason[2]/observation/code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输血目的描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/pertinentInformation[2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/component2/supplyRequest/code/displayName</t>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/pertinentInformation[5]/observation/code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CD类型检验项目编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/pertinentInformation[5]/observation/effectiveTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/pertinentInformation[5]/observation/value/displayName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CD类型检验项目检验结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST类型检验项目编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST类型检验项目检验结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/pertinentInformation[6]/observation/code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/pertinentInformation[6]/observation/value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PQ类型检验项目编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PQ类型检验项目检验结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/pertinentInformation[7]/observation/code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/pertinentInformation[7]/observation/value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>就诊状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/componentOf1/encounter/effectiveTime/any</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/componentOf1/encounter/id/item[2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/subject/patient/providerOrganization/asOrganizationPartOf/wholeOrganization/id/item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医疗机构代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/subject/patient/providerOrganization/asOrganizationPartOf/wholeOrganization/name/item/part</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医疗机构名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请日期</t>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/unitPriceAmt/numerator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/reason/organizer/id/item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/id/item[3]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/id/item[4]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/effectiveTime/any</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收款日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/id/item[1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收据号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/id/item[2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红冲账单流水号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账单码编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/code/displayName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账单码名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账单日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/effectiveTime/any</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/netAmt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账单金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账单金额单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV03/controlActProcess/subject/financialTransaction/reason/chargeGroup/netAmt</t>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/id/item[1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/id/item[2]/@extension</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结算次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/code/displayName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>费用状态名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/effectiveTime/any</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目收费时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/reason/organizer/code/displayName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>处方类别名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医嘱号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/reason/organizer/component/substanceAdministration/code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医嘱类别编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/reason/organizer/component/substanceAdministration/code/displayName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医嘱类别名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>包装序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/reason/organizer/component/substanceAdministration/consumable/manufacturedProduct/id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/reason/organizer/component/substanceAdministration/consumable/manufacturedProduct/manufacturedProduct/code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>费用编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/reason/organizer/component/substanceAdministration/consumable/manufacturedProduct/manufacturedProduct/code/displayName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>费用编码名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/reason/organizer/component/substanceAdministration/consumable/manufacturedProduct/subjectOf3/policy/code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医保类别编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/reason/organizer/component/substanceAdministration/consumable/manufacturedProduct/subjectOf3/policy/code/displayName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医保类别名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/coverage[1]/policyOrProgram/code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目分组编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/coverage[1]/policyOrProgram/code/displayName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目分组名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/coverage[2]/policyOrProgram/code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>费别编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/coverage[2]/policyOrProgram/code/displayName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>费别明细</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/pertinentInformation/encounter/location/serviceDeliveryLocation/serviceProviderOrganization/id/item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/pertinentInformation/encounter/location/serviceDeliveryLocation/serviceProviderOrganization/name/item/part</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>费用执行科室编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>费用执行科室名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/pertinentInformation/encounter/authorization/consent/performer/assignedEntity/id/item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>费用确认人编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>费用确认人姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/pertinentInformation/encounter/authorization/consent/performer/assignedEntity/assignedPerson/name/item/part</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/postingTo2/account/component[1]/account/id/item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医保号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/postingTo2/account/component[1]/account/code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/postingTo2/account/component[1]/account/code/displayName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医疗付费方式名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/postingTo2/account/component[1]/account/balanceAmt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医保付费方式编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/postingTo2/account/component[2]/account/balanceAmt</t>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/postingTo2/account/component[2]/account/id/item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医保外卡号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/postingTo2/account/component[2]/account/code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>付费类别编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/postingTo2/account/component[2]/account/code/displayName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医疗付费金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医疗付费金额单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医疗付费方式名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/postingTo2/account/component[2]/account/balanceAmt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/postingTo2/account/component[3]/account/balanceAmt</t>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根节点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/creationTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息创建时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/interactionId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交互ID extension="FIAB_IN020001UV02"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/processingCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息发送系统状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/processingModeCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息处理模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/acceptAckCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息应答</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/receiver/device/id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息接受者ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/sender/device/id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息发送者ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息封装内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息交互类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>封装对象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>费用交易</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/id/item[1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/author</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收款人信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/author/guarantorRole/id/item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收款人编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/author/guarantorRole/guarantorPerson/name/item/part</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收款人姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账单信息（可循环）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/postingTo2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/postingTo2/account/component[1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医保内金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/postingTo2/account/component[2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医保外金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>费用明细</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>费用状态码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/unitQuantity/numerator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/reason</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>费用项目信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>处方号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/reason/organizer/component/substanceAdministration/id/item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/coverage[1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收费项目分组信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/coverage[2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>费别信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/pertinentInformation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>费用相关信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/pertinentInformation/encounter/specialCourtesiesCode/item</t>
-  </si>
-  <si>
-    <t>婴儿标记信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/pertinentInformation/encounter/authorization/consent/author/responsibleParty/agentOrganization/id/item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>费用申请科室编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/pertinentInformation/encounter/authorization/consent/author/responsibleParty/agentOrganization/name/item/part</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>费用申请科室名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/pertinentInformation/encounter/authorization/consent/author/responsibleParty/representedPerson/id/item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>费用申请人编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/pertinentInformation/encounter/authorization/consent/author/responsibleParty/representedPerson/name/item/part</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>费用申请人名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_orderno</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>charge_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>charge_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV03/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/unitQuantity/numerator</t>
-  </si>
-  <si>
-    <t>数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV03/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/unitPriceAmt/numerator</t>
-  </si>
-  <si>
-    <t>单价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单价单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>charge_unit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_amount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根节点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/creationTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息创建时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/interactionId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交互ID extension="POOR_IN200901UV24"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/processingCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息发送系统的状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/processingModeCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/acceptAckCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/receiver/device/id/item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接受者ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/sender/device/id/item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送者ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息交互类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>封装对象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请单信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/text</t>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>病人信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>患者ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/subject/patient/id/item[2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/subject/patient/id/item[3]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>就诊号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>域ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/subject/patient/id/item[1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/subject/patient/addr/item/part[1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>病区编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/subject/patient/addr/item/part[1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>病区名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/subject/patient/addr/item/part[2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>床号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/subject/patient/telecom/item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/subject/patient/confidentialityCode/item/displayName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>病人信息隐私级别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/subject/patient/patientPerson/id/item[1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/subject/patient/patientPerson/id/item[2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/subject/patient/patientPerson/name/item/part</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/subject/patient/patientPerson/administrativeGenderCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>性别编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/subject/patient/patientPerson/birthTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出生日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/subject/patient/patientPerson/addr/item/part</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/subject/patient/patientPerson/maritalStatusCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>婚姻状况编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/subject/patient/patientPerson/contactParty/contactPerson/name/item/part</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系人姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/subject/patient/patientPerson/birthPlace/addr/part</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出生地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>病人科室编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/subject/patient/providerOrganization/name/item/part</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>病人科室名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/subject/patient/providerOrganization/id/item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/subject/patient/coveredPartyOf/coverageRecord/component/policyOrProgram/code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/author</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/author/assignedEntity/id/item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请医师编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/author/assignedEntity/assignedPerson/name/item/part</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请医师名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/author/assignedEntity/representedOrganization/id/item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请科室编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>recipe_deptid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/author/assignedEntity/representedOrganization/name/item/part</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请科室名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/verifier/time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/verifier/assignedEntity/id/item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认人编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/verifier/assignedEntity/assignedPerson/name/item/part</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认人姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/reason[1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/reason[1]/observation/code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>诊断类别编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/reason[1]/observation/code/displayName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>诊断类别名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/reason[1]/observation/statusCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态，模型中要求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/reason[1]/observation/value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>疾病编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/reason[1]/observation/value/displayName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>疾病名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>治疗目的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/reason[2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输血目的编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/reason[2]/observation/value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>临床路径项目编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/pertinentInformation[1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>临床路径项目序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>临床路径项目编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>临床路径项目序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/pertinentInformation[2]/observation/code/displayName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/pertinentInformation[3]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>业务操作时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/pertinentInformation[3]/observation/value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>业务操作时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/pertinentInformation[4]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>病史及自身输血</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/pertinentInformation[4]/observation/code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>布尔项目编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/pertinentInformation[4]/observation/text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/pertinentInformation[5]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CD类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CD类型检验项目验血日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/pertinentInformation[6]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/pertinentInformation[7]</t>
-  </si>
-  <si>
-    <t>PQ类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请血液信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/component2/supplyRequest/id/item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医嘱号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/component2/supplyRequest/code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输血品种代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输血品种名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/component2/supplyRequest/quantity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/component2/supplyRequest/pertinentInformation[1]/observation/value/displayName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请ABO血型编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/component2/supplyRequest/pertinentInformation[2]/observation/value/displayName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请RH血型编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/component2/supplyRequest/pertinentInformation[3]/observation/value/displayName</t>
-  </si>
-  <si>
-    <t>血液特殊要求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/componentOf1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>就诊信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/componentOf1/encounter/id/item[1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>就诊次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>就诊流水号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/componentOf1/encounter/code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>就诊类别编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/componentOf1/encounter/code/displayName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>就诊类别名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/componentOf1/encounter/statusCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>就诊/住院时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>patient_cardno</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>emergency_flag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>急诊标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>register_trade_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clinical_deptid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>priorityCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>expectedUseTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用血时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>telecom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>confidentialityCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>administrativeGenderCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>birthTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maritalStatusCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>contactPerson</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>birthPlace</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>statusCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effectiveTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clinical_deptname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wholeOrganization_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>patientPerson_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wholeOrganization_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>recipe_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>recipe_deptname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>verifier_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>verifier_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>临床诊断 1..n可多项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>observation_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>observation_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>observation_statuscode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>supplyRequest_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>supplyRequest_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>supplyRequest_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>supplyRequest_quantityvalue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effectiveTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guarantorPerson_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guarantorPerson_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>recipe_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>recipe_text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份证号  root="1.2.156.112635.1.2.1.9"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>献血证号  root="1.2.156.112635.1.2.1.10"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>supplyRequest_quantityunit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/component3/supplyRequest/quantity</t>
-  </si>
-  <si>
-    <t>申请剂量  value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剂量单位  unit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/id/item[2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">病人ID  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>就诊号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>就诊次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">域ID </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>院区编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>院区名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV24/controlActProcess/subject/supplyRequest/component2/supplyRequest/pertinentInformation[5]/observation/value/@value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>什么的输入？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应位置有错，应该在 /POOR_IN200901UV24/controlActProcess/subject/supplyRequest/componentOf1/encounter/code/displayName/@value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和执行科室是同一个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和上面的输入操作员有什么区别？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和医嘱ID重复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和输血品种代码重复，这是一个通用定义，医嘱类型在血液这块就是输血品种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV24/controlActProcess/subject/supplyRequest/text/@value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV24/controlActProcess/subject/supplyRequest/component2/supplyRequest/pertinentInformation[6]/observation/author/relatedEntity/id/item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV24/controlActProcess/subject/supplyRequest/component2/supplyRequest/pertinentInformation[6]/observation/author/relatedEntity/relatedPerson/name/item/part/@value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV24/controlActProcess/subject/supplyRequest/component2/supplyRequest/subjectOf6/annotation/text/@value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV24/controlActProcess/subject/supplyRequest/component2/supplyRequest/pertinentInformation[4]/observation/effectiveTime/any/@value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV24/controlActProcess/subject/supplyRequest/component2/supplyRequest/pertinentInformation[5]/observation/code/displayName/@value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处方类型和医嘱类型是相同含义，重复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV24/controlActProcess/subject/supplyRequest/subject/patient/providerOrganization/asOrganizationPartOf/wholeOrganization/id/item/@extension</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV24/controlActProcess/subject/supplyRequest/subject/patient/providerOrganization/asOrganizationPartOf/wholeOrganization/name/item/part/@value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV24/controlActProcess/subject/supplyRequest/subject/patient/providerOrganization/asOrganizationPartOf/wholeOrganization/asOrganizationPartOf/wholeOrganization/id/item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV24/controlActProcess/subject/supplyRequest/subject/patient/providerOrganization/asOrganizationPartOf/wholeOrganization/asOrganizationPartOf/wholeOrganization/name/item/part</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV24/controlActProcess[1]/subject[1]/supplyRequest[1]/component2[1]/supplyRequest[1]/pertinentInformation[10]/observation[1]/value[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV24/controlActProcess[1]/subject[1]/supplyRequest[1]/participant[1]/assignedOrganization[1]/id[1]/item[1]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1898,6 +2000,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1955,10 +2065,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2036,17 +2147,11 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2064,9 +2169,23 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2343,22 +2462,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H123"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D105" sqref="D105"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="C114" sqref="C114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="22.33203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.625" customWidth="1"/>
-    <col min="2" max="2" width="23.75" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" customWidth="1"/>
     <col min="3" max="3" width="41" customWidth="1"/>
-    <col min="4" max="4" width="36.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -2366,10 +2485,10 @@
         <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -2382,1897 +2501,1975 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="16" customFormat="1">
       <c r="A2" s="21">
         <v>1</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="9" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
     </row>
-    <row r="3" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="16" customFormat="1">
       <c r="A3" s="21">
         <v>2</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="14" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
     </row>
-    <row r="4" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" s="16" customFormat="1">
       <c r="A4" s="21">
         <v>3</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="14" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
     </row>
-    <row r="5" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="16" customFormat="1">
       <c r="A5" s="21">
         <v>4</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="14" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
     </row>
-    <row r="6" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" s="16" customFormat="1">
       <c r="A6" s="21">
         <v>5</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="14" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
     </row>
-    <row r="7" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" s="16" customFormat="1">
       <c r="A7" s="21">
         <v>6</v>
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="14" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
     </row>
-    <row r="8" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" s="16" customFormat="1">
       <c r="A8" s="21">
         <v>7</v>
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="14" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
     </row>
-    <row r="9" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" s="16" customFormat="1">
       <c r="A9" s="21">
         <v>8</v>
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="14" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
     </row>
-    <row r="10" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" s="16" customFormat="1">
       <c r="A10" s="21">
         <v>9</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="14" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
     </row>
-    <row r="11" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" s="16" customFormat="1">
       <c r="A11" s="21">
         <v>10</v>
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="10" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
     </row>
-    <row r="12" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" s="16" customFormat="1">
       <c r="A12" s="21">
         <v>11</v>
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="14" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
     </row>
-    <row r="13" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" s="16" customFormat="1">
       <c r="A13" s="21">
         <v>12</v>
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="10" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
     </row>
-    <row r="14" spans="1:8" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" s="16" customFormat="1" ht="30">
       <c r="A14" s="21">
         <v>13</v>
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="10" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
     </row>
-    <row r="15" spans="1:8" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" s="16" customFormat="1" ht="28">
       <c r="A15" s="21">
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F15" s="13"/>
     </row>
-    <row r="16" spans="1:8" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" s="16" customFormat="1" ht="28">
       <c r="A16" s="21">
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" s="16" customFormat="1" ht="30">
       <c r="A17" s="21">
         <v>16</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F17" s="13"/>
     </row>
-    <row r="18" spans="1:6" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" s="16" customFormat="1" ht="28">
       <c r="A18" s="21">
         <v>17</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
     </row>
-    <row r="19" spans="1:6" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" s="16" customFormat="1" ht="28">
       <c r="A19" s="21">
         <v>18</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
     </row>
-    <row r="20" spans="1:6" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" s="16" customFormat="1" ht="28">
       <c r="A20" s="21">
         <v>19</v>
       </c>
       <c r="B20" s="13"/>
       <c r="C20" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
     </row>
-    <row r="21" spans="1:6" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" s="16" customFormat="1" ht="28">
       <c r="A21" s="21">
         <v>20</v>
       </c>
       <c r="B21" s="13"/>
       <c r="C21" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E21" s="13"/>
       <c r="F21" s="13" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="16" customFormat="1" ht="28">
       <c r="A22" s="21">
         <v>21</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E22" s="13" t="s">
         <v>3</v>
       </c>
       <c r="F22" s="13"/>
     </row>
-    <row r="23" spans="1:6" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" s="16" customFormat="1" ht="28">
       <c r="A23" s="21">
         <v>22</v>
       </c>
       <c r="B23" s="13"/>
       <c r="C23" s="3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
     </row>
-    <row r="24" spans="1:6" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" s="16" customFormat="1" ht="28">
       <c r="A24" s="21">
         <v>23</v>
       </c>
       <c r="B24" s="13"/>
       <c r="C24" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E24" s="13"/>
       <c r="F24" s="13" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="16" customFormat="1" ht="28">
       <c r="A25" s="21">
         <v>24</v>
       </c>
       <c r="B25" s="13"/>
       <c r="C25" s="3" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
     </row>
-    <row r="26" spans="1:6" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" s="16" customFormat="1" ht="28">
       <c r="A26" s="21">
         <v>25</v>
       </c>
       <c r="B26" s="13"/>
       <c r="C26" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
     </row>
-    <row r="27" spans="1:6" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" s="16" customFormat="1" ht="28">
       <c r="A27" s="21">
         <v>26</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
     </row>
-    <row r="28" spans="1:6" s="16" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" s="16" customFormat="1" ht="42">
       <c r="A28" s="21">
         <v>27</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
     </row>
-    <row r="29" spans="1:6" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" s="16" customFormat="1" ht="28">
       <c r="A29" s="21">
         <v>28</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
     </row>
-    <row r="30" spans="1:6" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" s="16" customFormat="1" ht="28">
       <c r="A30" s="21">
         <v>29</v>
       </c>
       <c r="B30" s="13"/>
       <c r="C30" s="3" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
     </row>
-    <row r="31" spans="1:6" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" s="16" customFormat="1" ht="28">
       <c r="A31" s="21">
         <v>30</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
     </row>
-    <row r="32" spans="1:6" s="16" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" s="16" customFormat="1" ht="42">
       <c r="A32" s="21">
         <v>31</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
     </row>
-    <row r="33" spans="1:6" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" s="16" customFormat="1" ht="28">
       <c r="A33" s="21">
         <v>32</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
     </row>
-    <row r="34" spans="1:6" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" s="16" customFormat="1" ht="28">
       <c r="A34" s="21">
         <v>33</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E34" s="13"/>
       <c r="F34" s="13"/>
     </row>
-    <row r="35" spans="1:6" s="16" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" s="16" customFormat="1" ht="42">
       <c r="A35" s="21">
         <v>34</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E35" s="13"/>
       <c r="F35" s="13"/>
     </row>
-    <row r="36" spans="1:6" s="16" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" s="16" customFormat="1" ht="42">
       <c r="A36" s="21">
         <v>35</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E36" s="13"/>
       <c r="F36" s="13"/>
     </row>
-    <row r="37" spans="1:6" s="16" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" s="16" customFormat="1" ht="42">
       <c r="A37" s="21">
         <v>36</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E37" s="13"/>
       <c r="F37" s="13"/>
     </row>
-    <row r="38" spans="1:6" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" s="16" customFormat="1" ht="28">
       <c r="A38" s="21">
         <v>37</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E38" s="13" t="s">
         <v>3</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" s="16" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="16" customFormat="1" ht="42">
       <c r="A39" s="21">
         <v>38</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E39" s="13"/>
       <c r="F39" s="13"/>
     </row>
-    <row r="40" spans="1:6" s="16" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" s="16" customFormat="1" ht="60">
       <c r="A40" s="21">
         <v>39</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>87</v>
+        <v>476</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E40" s="13"/>
       <c r="F40" s="13" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" s="16" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="16" customFormat="1" ht="60">
       <c r="A41" s="21">
         <v>40</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>89</v>
+        <v>477</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E41" s="13"/>
       <c r="F41" s="13"/>
     </row>
-    <row r="42" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" s="16" customFormat="1" ht="60">
       <c r="A42" s="25">
         <v>41</v>
       </c>
       <c r="B42" s="27"/>
-      <c r="C42" s="29"/>
+      <c r="C42" s="40" t="s">
+        <v>474</v>
+      </c>
       <c r="D42" s="27" t="s">
-        <v>453</v>
-      </c>
-      <c r="E42" s="30" t="s">
-        <v>452</v>
+        <v>450</v>
+      </c>
+      <c r="E42" s="29" t="s">
+        <v>449</v>
       </c>
       <c r="F42" s="13"/>
     </row>
-    <row r="43" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="31">
+    <row r="43" spans="1:7" s="16" customFormat="1" ht="60">
+      <c r="A43" s="30">
         <v>42</v>
       </c>
-      <c r="B43" s="30"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="30" t="s">
-        <v>454</v>
-      </c>
-      <c r="E43" s="30" t="s">
-        <v>452</v>
+      <c r="B43" s="29"/>
+      <c r="C43" s="40" t="s">
+        <v>475</v>
+      </c>
+      <c r="D43" s="29" t="s">
+        <v>451</v>
+      </c>
+      <c r="E43" s="29" t="s">
+        <v>449</v>
       </c>
       <c r="F43" s="13"/>
     </row>
-    <row r="44" spans="1:6" s="16" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" s="16" customFormat="1" ht="45">
       <c r="A44" s="21">
         <v>43</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="F44" s="13"/>
-    </row>
-    <row r="45" spans="1:6" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="G44" s="16" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="16" customFormat="1" ht="30">
       <c r="A45" s="21">
         <v>44</v>
       </c>
       <c r="B45" s="13"/>
       <c r="C45" s="20" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E45" s="13"/>
       <c r="F45" s="13"/>
     </row>
-    <row r="46" spans="1:6" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" s="16" customFormat="1" ht="28">
       <c r="A46" s="21">
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E46" s="7"/>
       <c r="F46" s="13" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" s="16" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" s="16" customFormat="1" ht="45">
       <c r="A47" s="21">
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F47" s="13"/>
     </row>
-    <row r="48" spans="1:6" s="16" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" s="16" customFormat="1" ht="45">
       <c r="A48" s="21">
         <v>47</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E48" s="13" t="s">
         <v>3</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" s="16" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="16" customFormat="1" ht="45">
       <c r="A49" s="21">
         <v>48</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E49" s="13"/>
       <c r="F49" s="13"/>
     </row>
-    <row r="50" spans="1:6" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" s="16" customFormat="1" ht="30">
       <c r="A50" s="21">
         <v>49</v>
       </c>
       <c r="B50" s="13"/>
       <c r="C50" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="E50" s="13"/>
       <c r="F50" s="13"/>
     </row>
-    <row r="51" spans="1:6" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" s="16" customFormat="1" ht="30">
       <c r="A51" s="21">
         <v>50</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E51" s="13"/>
       <c r="F51" s="13"/>
     </row>
-    <row r="52" spans="1:6" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" s="16" customFormat="1" ht="30">
       <c r="A52" s="21">
         <v>51</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E52" s="13"/>
       <c r="F52" s="13" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" s="16" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" s="16" customFormat="1" ht="45">
       <c r="A53" s="21">
         <v>52</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E53" s="13"/>
       <c r="F53" s="13"/>
     </row>
-    <row r="54" spans="1:6" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" s="16" customFormat="1" ht="30">
       <c r="A54" s="21">
         <v>53</v>
       </c>
       <c r="B54" s="13"/>
       <c r="C54" s="20" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="E54" s="13"/>
       <c r="F54" s="13"/>
     </row>
-    <row r="55" spans="1:6" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" s="16" customFormat="1" ht="30">
       <c r="A55" s="21">
         <v>54</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E55" s="13"/>
       <c r="F55" s="13"/>
     </row>
-    <row r="56" spans="1:6" s="16" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" s="16" customFormat="1" ht="45">
       <c r="A56" s="21">
         <v>55</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E56" s="13"/>
       <c r="F56" s="13"/>
     </row>
-    <row r="57" spans="1:6" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" s="16" customFormat="1" ht="30">
       <c r="A57" s="21">
         <v>56</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E57" s="13"/>
       <c r="F57" s="13"/>
     </row>
-    <row r="58" spans="1:6" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" s="16" customFormat="1" ht="30">
       <c r="A58" s="21">
         <v>57</v>
       </c>
       <c r="B58" s="13"/>
       <c r="C58" s="19" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E58" s="13"/>
       <c r="F58" s="13"/>
     </row>
-    <row r="59" spans="1:6" s="16" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" s="16" customFormat="1" ht="45">
       <c r="A59" s="21">
         <v>58</v>
       </c>
       <c r="B59" s="13"/>
       <c r="C59" s="19" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E59" s="13"/>
       <c r="F59" s="13"/>
     </row>
-    <row r="60" spans="1:6" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" s="16" customFormat="1" ht="30">
       <c r="A60" s="21">
         <v>59</v>
       </c>
       <c r="B60" s="13"/>
       <c r="C60" s="20" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E60" s="13"/>
       <c r="F60" s="13"/>
     </row>
-    <row r="61" spans="1:6" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" s="16" customFormat="1" ht="30">
       <c r="A61" s="21">
         <v>60</v>
       </c>
       <c r="B61" s="13"/>
       <c r="C61" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E61" s="13"/>
       <c r="F61" s="13"/>
     </row>
-    <row r="62" spans="1:6" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" s="16" customFormat="1" ht="30">
       <c r="A62" s="21">
         <v>61</v>
       </c>
       <c r="B62" s="13"/>
       <c r="C62" s="19" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E62" s="13"/>
       <c r="F62" s="13"/>
     </row>
-    <row r="63" spans="1:6" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" s="16" customFormat="1" ht="30">
       <c r="A63" s="21">
         <v>62</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E63" s="13" t="s">
         <v>3</v>
       </c>
       <c r="F63" s="13"/>
     </row>
-    <row r="64" spans="1:6" s="16" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" s="16" customFormat="1" ht="45">
       <c r="A64" s="21">
         <v>63</v>
       </c>
       <c r="B64" s="13"/>
       <c r="C64" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E64" s="13"/>
       <c r="F64" s="13"/>
     </row>
-    <row r="65" spans="1:6" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" s="16" customFormat="1" ht="30">
       <c r="A65" s="21">
         <v>64</v>
       </c>
       <c r="B65" s="13"/>
       <c r="C65" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E65" s="13"/>
       <c r="F65" s="13"/>
     </row>
-    <row r="66" spans="1:6" s="16" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" s="16" customFormat="1" ht="45">
       <c r="A66" s="21">
         <v>65</v>
       </c>
       <c r="B66" s="13"/>
       <c r="C66" s="19" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E66" s="13"/>
       <c r="F66" s="13"/>
     </row>
-    <row r="67" spans="1:6" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" s="16" customFormat="1" ht="30">
       <c r="A67" s="21">
         <v>66</v>
       </c>
       <c r="B67" s="13"/>
       <c r="C67" s="20" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E67" s="13"/>
       <c r="F67" s="13"/>
     </row>
-    <row r="68" spans="1:6" s="16" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" s="16" customFormat="1" ht="45">
       <c r="A68" s="21">
         <v>67</v>
       </c>
       <c r="B68" s="13"/>
       <c r="C68" s="19" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D68" s="13" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E68" s="13"/>
       <c r="F68" s="13"/>
     </row>
-    <row r="69" spans="1:6" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" s="16" customFormat="1" ht="30">
       <c r="A69" s="21">
         <v>68</v>
       </c>
       <c r="B69" s="13"/>
       <c r="C69" s="20" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E69" s="13"/>
       <c r="F69" s="13"/>
     </row>
-    <row r="70" spans="1:6" s="16" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" s="16" customFormat="1" ht="45">
       <c r="A70" s="21">
         <v>69</v>
       </c>
       <c r="B70" s="13"/>
       <c r="C70" s="19" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E70" s="13"/>
       <c r="F70" s="13"/>
     </row>
-    <row r="71" spans="1:6" s="16" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" s="16" customFormat="1" ht="30">
       <c r="A71" s="21">
         <v>70</v>
       </c>
       <c r="B71" s="13"/>
       <c r="C71" s="19" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E71" s="13"/>
       <c r="F71" s="13"/>
     </row>
-    <row r="72" spans="1:6" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" s="16" customFormat="1" ht="30">
       <c r="A72" s="21">
         <v>71</v>
       </c>
       <c r="B72" s="13"/>
       <c r="C72" s="20" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E72" s="13"/>
       <c r="F72" s="13"/>
     </row>
-    <row r="73" spans="1:6" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" s="16" customFormat="1" ht="28">
       <c r="A73" s="21">
         <v>72</v>
       </c>
       <c r="B73" s="13"/>
       <c r="C73" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D73" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="E73" s="13"/>
       <c r="F73" s="13"/>
     </row>
-    <row r="74" spans="1:6" s="16" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" s="16" customFormat="1" ht="42">
       <c r="A74" s="21">
         <v>73</v>
       </c>
       <c r="B74" s="13"/>
       <c r="C74" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="E74" s="13"/>
       <c r="F74" s="13"/>
     </row>
-    <row r="75" spans="1:6" s="16" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" s="16" customFormat="1" ht="42">
       <c r="A75" s="21">
         <v>74</v>
       </c>
       <c r="B75" s="13"/>
       <c r="C75" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D75" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="E75" s="13"/>
       <c r="F75" s="13"/>
     </row>
-    <row r="76" spans="1:6" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" s="16" customFormat="1" ht="30">
       <c r="A76" s="21">
         <v>75</v>
       </c>
       <c r="B76" s="13"/>
       <c r="C76" s="20" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E76" s="13"/>
       <c r="F76" s="13"/>
     </row>
-    <row r="77" spans="1:6" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" s="16" customFormat="1" ht="28">
       <c r="A77" s="21">
         <v>76</v>
       </c>
       <c r="B77" s="13"/>
       <c r="C77" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E77" s="13"/>
       <c r="F77" s="13"/>
     </row>
-    <row r="78" spans="1:6" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" s="16" customFormat="1" ht="28">
       <c r="A78" s="21">
         <v>77</v>
       </c>
       <c r="B78" s="13"/>
       <c r="C78" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E78" s="13"/>
       <c r="F78" s="13"/>
     </row>
-    <row r="79" spans="1:6" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" s="16" customFormat="1" ht="30">
       <c r="A79" s="21">
         <v>78</v>
       </c>
       <c r="B79" s="13"/>
       <c r="C79" s="20" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E79" s="13"/>
       <c r="F79" s="13"/>
     </row>
-    <row r="80" spans="1:6" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" s="16" customFormat="1" ht="28">
       <c r="A80" s="21">
         <v>79</v>
       </c>
       <c r="B80" s="13"/>
       <c r="C80" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E80" s="13"/>
       <c r="F80" s="13"/>
     </row>
-    <row r="81" spans="1:6" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" s="16" customFormat="1" ht="28">
       <c r="A81" s="21">
         <v>80</v>
       </c>
       <c r="B81" s="13"/>
       <c r="C81" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E81" s="13"/>
       <c r="F81" s="13"/>
     </row>
-    <row r="82" spans="1:6" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" s="16" customFormat="1" ht="30">
       <c r="A82" s="21">
         <v>81</v>
       </c>
       <c r="B82" s="13"/>
       <c r="C82" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E82" s="13"/>
       <c r="F82" s="13"/>
     </row>
-    <row r="83" spans="1:6" s="16" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" s="16" customFormat="1" ht="30">
       <c r="A83" s="21">
         <v>82</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C83" s="19" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D83" s="13" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E83" s="13"/>
       <c r="F83" s="13" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" s="16" customFormat="1" ht="30">
       <c r="A84" s="21">
         <v>83</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C84" s="19" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D84" s="13" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E84" s="13"/>
       <c r="F84" s="13" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" s="16" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" s="16" customFormat="1" ht="45">
       <c r="A85" s="21">
         <v>84</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C85" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D85" s="13" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E85" s="13"/>
       <c r="F85" s="13" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" s="16" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" s="16" customFormat="1" ht="30">
       <c r="A86" s="21">
         <v>85</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C86" s="19" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D86" s="13" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="E86" s="13"/>
       <c r="F86" s="13" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" s="16" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" s="16" customFormat="1" ht="30">
       <c r="A87" s="21">
         <v>86</v>
       </c>
       <c r="B87" s="13" t="s">
+        <v>440</v>
+      </c>
+      <c r="C87" s="19" t="s">
+        <v>441</v>
+      </c>
+      <c r="D87" s="13" t="s">
         <v>443</v>
-      </c>
-      <c r="C87" s="19" t="s">
-        <v>444</v>
-      </c>
-      <c r="D87" s="13" t="s">
-        <v>446</v>
       </c>
       <c r="E87" s="13"/>
       <c r="F87" s="13" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" s="16" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" s="16" customFormat="1" ht="45">
       <c r="A88" s="21">
         <v>87</v>
       </c>
       <c r="B88" s="13"/>
       <c r="C88" s="19" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D88" s="13" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E88" s="13"/>
       <c r="F88" s="13"/>
     </row>
-    <row r="89" spans="1:6" s="16" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" s="16" customFormat="1" ht="45">
       <c r="A89" s="21">
         <v>88</v>
       </c>
       <c r="B89" s="13"/>
       <c r="C89" s="19" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D89" s="13" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E89" s="13"/>
       <c r="F89" s="13"/>
     </row>
-    <row r="90" spans="1:6" s="16" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" s="16" customFormat="1" ht="45">
       <c r="A90" s="21">
         <v>89</v>
       </c>
       <c r="B90" s="13"/>
       <c r="C90" s="19" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D90" s="13" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="E90" s="13"/>
       <c r="F90" s="13"/>
     </row>
-    <row r="91" spans="1:6" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" s="16" customFormat="1" ht="30">
       <c r="A91" s="21">
         <v>90</v>
       </c>
       <c r="B91" s="13"/>
       <c r="C91" s="20" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E91" s="13"/>
       <c r="F91" s="13"/>
     </row>
-    <row r="92" spans="1:6" s="16" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" s="16" customFormat="1" ht="30">
       <c r="A92" s="21">
         <v>91</v>
       </c>
       <c r="B92" s="13"/>
       <c r="C92" s="19" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D92" s="13" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E92" s="13"/>
       <c r="F92" s="13" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" s="16" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" s="16" customFormat="1" ht="30">
       <c r="A93" s="21">
         <v>92</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C93" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D93" s="13" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E93" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F93" s="13"/>
     </row>
-    <row r="94" spans="1:6" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" s="16" customFormat="1" ht="30">
       <c r="A94" s="21">
         <v>93</v>
       </c>
       <c r="B94" s="13"/>
       <c r="C94" s="19" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D94" s="13" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E94" s="13"/>
       <c r="F94" s="13"/>
     </row>
-    <row r="95" spans="1:6" s="16" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" s="16" customFormat="1" ht="45">
       <c r="A95" s="21">
         <v>94</v>
       </c>
       <c r="B95" s="13"/>
       <c r="C95" s="19" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D95" s="13" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E95" s="13"/>
       <c r="F95" s="13"/>
     </row>
-    <row r="96" spans="1:6" s="16" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" s="16" customFormat="1" ht="30">
       <c r="A96" s="21">
         <v>95</v>
       </c>
       <c r="B96" s="13" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C96" s="19" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D96" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E96" s="13"/>
       <c r="F96" s="13"/>
     </row>
-    <row r="97" spans="1:6" s="16" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" s="16" customFormat="1" ht="45">
       <c r="A97" s="21">
         <v>96</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C97" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D97" s="13" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="E97" s="13"/>
       <c r="F97" s="13" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" s="16" customFormat="1" ht="42">
       <c r="A98" s="25">
         <v>97</v>
       </c>
       <c r="B98" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C98" s="26"/>
+        <v>36</v>
+      </c>
+      <c r="C98" s="26" t="s">
+        <v>472</v>
+      </c>
       <c r="D98" s="22" t="s">
         <v>8</v>
       </c>
       <c r="E98" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F98" s="27" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" s="16" customFormat="1" ht="60">
       <c r="A99" s="25">
         <v>98</v>
       </c>
       <c r="B99" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C99" s="26"/>
+        <v>37</v>
+      </c>
+      <c r="C99" s="38" t="s">
+        <v>456</v>
+      </c>
       <c r="D99" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E99" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F99" s="27"/>
     </row>
-    <row r="100" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" s="16" customFormat="1" ht="42">
       <c r="A100" s="25">
         <v>99</v>
       </c>
       <c r="B100" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C100" s="26"/>
+        <v>38</v>
+      </c>
+      <c r="C100" s="26" t="s">
+        <v>455</v>
+      </c>
       <c r="D100" s="22" t="s">
         <v>10</v>
       </c>
       <c r="E100" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F100" s="27"/>
     </row>
-    <row r="101" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="25">
+    <row r="101" spans="1:7" s="16" customFormat="1">
+      <c r="A101" s="31">
         <v>100</v>
       </c>
-      <c r="B101" s="22" t="s">
+      <c r="B101" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C101" s="33"/>
+      <c r="D101" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E101" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="F101" s="27"/>
+      <c r="G101" s="16" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" s="36" customFormat="1">
+      <c r="A102" s="31">
+        <v>101</v>
+      </c>
+      <c r="B102" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C101" s="26"/>
-      <c r="D101" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="E101" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="F101" s="27"/>
-    </row>
-    <row r="102" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="33">
-        <v>101</v>
-      </c>
-      <c r="B102" s="34" t="s">
+      <c r="C102" s="33"/>
+      <c r="D102" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E102" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="F102" s="35" t="s">
+        <v>431</v>
+      </c>
+      <c r="G102" s="36" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" s="36" customFormat="1">
+      <c r="A103" s="31">
+        <v>102</v>
+      </c>
+      <c r="B103" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="C102" s="35"/>
-      <c r="D102" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="E102" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="F102" s="37" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="33">
-        <v>102</v>
-      </c>
-      <c r="B103" s="34" t="s">
+      <c r="C103" s="33"/>
+      <c r="D103" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E103" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="F103" s="35"/>
+      <c r="G103" s="36" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" s="36" customFormat="1">
+      <c r="A104" s="31">
+        <v>103</v>
+      </c>
+      <c r="B104" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="C103" s="35"/>
-      <c r="D103" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="E103" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="F103" s="37"/>
-    </row>
-    <row r="104" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="33">
-        <v>103</v>
-      </c>
-      <c r="B104" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="C104" s="35"/>
-      <c r="D104" s="34" t="s">
+      <c r="C104" s="33"/>
+      <c r="D104" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="E104" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="F104" s="37"/>
-    </row>
-    <row r="105" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E104" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="F104" s="35"/>
+      <c r="G104" s="36" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" s="16" customFormat="1">
       <c r="A105" s="25">
         <v>104</v>
       </c>
       <c r="B105" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C105" s="28"/>
       <c r="D105" s="22" t="s">
         <v>15</v>
       </c>
       <c r="E105" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F105" s="27"/>
-    </row>
-    <row r="106" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G105" s="16" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" s="16" customFormat="1" ht="42">
       <c r="A106" s="25">
         <v>105</v>
       </c>
       <c r="B106" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C106" s="28"/>
+        <v>44</v>
+      </c>
+      <c r="C106" s="28" t="s">
+        <v>458</v>
+      </c>
       <c r="D106" s="22" t="s">
         <v>16</v>
       </c>
       <c r="E106" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F106" s="27"/>
     </row>
-    <row r="107" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" s="16" customFormat="1" ht="42">
       <c r="A107" s="25">
         <v>106</v>
       </c>
       <c r="B107" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C107" s="28"/>
+        <v>45</v>
+      </c>
+      <c r="C107" s="28" t="s">
+        <v>460</v>
+      </c>
       <c r="D107" s="22" t="s">
-        <v>17</v>
+        <v>459</v>
       </c>
       <c r="E107" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F107" s="27"/>
     </row>
-    <row r="108" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" s="16" customFormat="1">
       <c r="A108" s="25">
         <v>107</v>
       </c>
       <c r="B108" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C108" s="28"/>
       <c r="D108" s="22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E108" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F108" s="27"/>
-    </row>
-    <row r="109" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G108" s="16" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" s="16" customFormat="1">
       <c r="A109" s="25">
         <v>108</v>
       </c>
       <c r="B109" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C109" s="28"/>
       <c r="D109" s="22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E109" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F109" s="27"/>
     </row>
-    <row r="110" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" s="16" customFormat="1">
       <c r="A110" s="25">
         <v>109</v>
       </c>
       <c r="B110" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C110" s="28"/>
       <c r="D110" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E110" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F110" s="27"/>
     </row>
-    <row r="111" spans="1:6" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" s="16" customFormat="1" ht="28">
       <c r="A111" s="21">
         <v>110</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F111" s="13"/>
     </row>
-    <row r="112" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" s="16" customFormat="1" ht="42">
       <c r="A112" s="25">
         <v>111</v>
       </c>
       <c r="B112" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C112" s="26"/>
+        <v>50</v>
+      </c>
+      <c r="C112" s="26" t="s">
+        <v>471</v>
+      </c>
       <c r="D112" s="22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E112" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F112" s="13"/>
     </row>
-    <row r="113" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" s="16" customFormat="1" ht="45">
       <c r="A113" s="25">
         <v>112</v>
       </c>
       <c r="B113" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C113" s="28"/>
+        <v>51</v>
+      </c>
+      <c r="C113" s="41" t="s">
+        <v>470</v>
+      </c>
       <c r="D113" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E113" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F113" s="13"/>
     </row>
-    <row r="114" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" s="16" customFormat="1" ht="42">
       <c r="A114" s="25">
         <v>113</v>
       </c>
       <c r="B114" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C114" s="26"/>
+        <v>52</v>
+      </c>
+      <c r="C114" s="26" t="s">
+        <v>479</v>
+      </c>
       <c r="D114" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E114" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F114" s="13"/>
-    </row>
-    <row r="115" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G114" s="16" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" s="16" customFormat="1">
       <c r="A115" s="25">
         <v>114</v>
       </c>
       <c r="B115" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C115" s="26"/>
       <c r="D115" s="22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E115" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F115" s="13"/>
-    </row>
-    <row r="116" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G115" s="16" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" s="16" customFormat="1">
       <c r="A116" s="25">
         <v>115</v>
       </c>
       <c r="B116" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C116" s="26"/>
       <c r="D116" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E116" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F116" s="13"/>
-    </row>
-    <row r="117" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G116" s="16" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" s="16" customFormat="1" ht="60">
       <c r="A117" s="21">
         <v>116</v>
       </c>
       <c r="B117" s="13"/>
-      <c r="C117" s="19"/>
+      <c r="C117" s="19" t="s">
+        <v>478</v>
+      </c>
       <c r="D117" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E117" s="13"/>
       <c r="F117" s="13"/>
-    </row>
-    <row r="118" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G117" s="16" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" s="16" customFormat="1" ht="30">
       <c r="A118" s="21">
         <v>117</v>
       </c>
       <c r="B118" s="13"/>
-      <c r="C118" s="19"/>
+      <c r="C118" s="40" t="s">
+        <v>467</v>
+      </c>
       <c r="D118" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E118" s="13"/>
       <c r="F118" s="13"/>
-    </row>
-    <row r="119" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G118" s="39" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" s="16" customFormat="1" ht="60">
       <c r="A119" s="21">
         <v>118</v>
       </c>
       <c r="B119" s="13"/>
-      <c r="C119" s="19"/>
+      <c r="C119" s="19" t="s">
+        <v>468</v>
+      </c>
       <c r="D119" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E119" s="13"/>
       <c r="F119" s="13"/>
     </row>
-    <row r="120" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" s="16" customFormat="1" ht="60">
       <c r="A120" s="21">
         <v>119</v>
       </c>
       <c r="B120" s="13"/>
-      <c r="C120" s="19"/>
+      <c r="C120" s="19" t="s">
+        <v>469</v>
+      </c>
       <c r="D120" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E120" s="13"/>
       <c r="F120" s="13"/>
     </row>
-    <row r="121" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" s="16" customFormat="1" ht="60">
       <c r="A121" s="21">
         <v>120</v>
       </c>
       <c r="B121" s="13"/>
-      <c r="C121" s="19"/>
+      <c r="C121" s="19" t="s">
+        <v>468</v>
+      </c>
       <c r="D121" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E121" s="13"/>
       <c r="F121" s="13"/>
     </row>
-    <row r="122" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" s="16" customFormat="1" ht="60">
       <c r="A122" s="21">
         <v>121</v>
       </c>
       <c r="B122" s="13"/>
-      <c r="C122" s="19"/>
+      <c r="C122" s="19" t="s">
+        <v>469</v>
+      </c>
       <c r="D122" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E122" s="13"/>
       <c r="F122" s="13"/>
     </row>
-    <row r="123" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" s="16" customFormat="1" ht="60">
       <c r="A123" s="21">
         <v>122</v>
       </c>
       <c r="B123" s="13"/>
-      <c r="C123" s="19"/>
+      <c r="C123" s="19" t="s">
+        <v>468</v>
+      </c>
       <c r="D123" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E123" s="13"/>
       <c r="F123" s="13"/>
     </row>
   </sheetData>
-  <autoFilter ref="E1:E123"/>
+  <autoFilter ref="E1:E123" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C99" r:id="rId1" xr:uid="{C60ED756-13A4-4858-BBC9-8FB1BA442375}"/>
+    <hyperlink ref="G118" r:id="rId2" xr:uid="{0652BCA8-0AF7-4A8F-85FA-7AD34380C5F3}"/>
+    <hyperlink ref="C118" r:id="rId3" xr:uid="{1AB3031F-AC62-4E9E-B1C9-733D0FF58169}"/>
+    <hyperlink ref="C113" r:id="rId4" xr:uid="{26C315A3-B143-4387-BA53-F697A19F5787}"/>
+    <hyperlink ref="C42" r:id="rId5" xr:uid="{7C89B968-0A85-4789-8D63-3177C4199A1B}"/>
+    <hyperlink ref="C43" r:id="rId6" xr:uid="{E99EFAEE-4B62-4458-A53B-8BB8F2674647}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="D88" sqref="D88"/>
+    <sheetView topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="G82" sqref="G82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="16.25" customWidth="1"/>
-    <col min="3" max="3" width="59.5" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" customWidth="1"/>
+    <col min="3" max="3" width="71.83203125" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="21.375" customWidth="1"/>
-    <col min="6" max="6" width="16.875" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4280,10 +4477,10 @@
         <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -4296,1278 +4493,1284 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" s="15">
         <v>1</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="9" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="15">
         <v>2</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="13" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" s="15">
         <v>3</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="13" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" s="15">
         <v>4</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="13" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" s="15">
         <v>5</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="13" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" s="15">
         <v>6</v>
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="13" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8" s="15">
         <v>7</v>
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="13" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9" s="15">
         <v>8</v>
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="13" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10" s="15">
         <v>9</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="13" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11" s="15">
         <v>10</v>
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="A12" s="15">
         <v>11</v>
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="13" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13" s="15">
         <v>12</v>
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="9" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14" s="15">
         <v>13</v>
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="9" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" s="15">
         <v>14</v>
       </c>
       <c r="B15" s="13"/>
       <c r="C15" s="3" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16" s="15">
         <v>15</v>
       </c>
       <c r="B16" s="13"/>
       <c r="C16" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" s="15">
         <v>16</v>
       </c>
       <c r="B17" s="13"/>
       <c r="C17" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" s="15">
         <v>17</v>
       </c>
       <c r="B18" s="13"/>
       <c r="C18" s="13" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" s="15">
         <v>18</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="13" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20" s="15">
         <v>19</v>
       </c>
       <c r="B20" s="13"/>
       <c r="C20" s="9" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" s="15">
         <v>20</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E21" s="13"/>
       <c r="F21" s="13" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" ht="41.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="41.5" customHeight="1">
       <c r="A22" s="15">
         <v>21</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23" s="15">
         <v>22</v>
       </c>
       <c r="B23" s="13"/>
       <c r="C23" s="9" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="28">
       <c r="A24" s="15">
         <v>23</v>
       </c>
       <c r="B24" s="13"/>
       <c r="C24" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="28">
       <c r="A25" s="15">
         <v>24</v>
       </c>
       <c r="B25" s="13"/>
       <c r="C25" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26" s="15">
         <v>25</v>
       </c>
       <c r="B26" s="13"/>
       <c r="C26" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="28">
       <c r="A27" s="15">
         <v>26</v>
       </c>
       <c r="B27" s="13"/>
       <c r="C27" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="28">
       <c r="A28" s="15">
         <v>27</v>
       </c>
       <c r="B28" s="13"/>
       <c r="C28" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="28">
       <c r="A29" s="15">
         <v>28</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="28">
       <c r="A30" s="15">
         <v>29</v>
       </c>
       <c r="B30" s="13"/>
       <c r="C30" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="28">
       <c r="A31" s="15">
         <v>30</v>
       </c>
       <c r="B31" s="13"/>
       <c r="C31" s="8" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="28">
       <c r="A32" s="15">
         <v>31</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F32" s="13"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="28">
       <c r="A33" s="15">
         <v>32</v>
       </c>
       <c r="B33" s="13"/>
       <c r="C33" s="11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="28">
       <c r="A34" s="15">
         <v>33</v>
       </c>
       <c r="B34" s="13"/>
       <c r="C34" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E34" s="13"/>
       <c r="F34" s="13"/>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="28">
       <c r="A35" s="15">
         <v>34</v>
       </c>
       <c r="B35" s="13"/>
       <c r="C35" s="11" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E35" s="13"/>
       <c r="F35" s="13"/>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="28">
       <c r="A36" s="15">
         <v>35</v>
       </c>
       <c r="B36" s="13"/>
       <c r="C36" s="11" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E36" s="13"/>
       <c r="F36" s="13"/>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="28">
       <c r="A37" s="15">
         <v>36</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F37" s="13"/>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="28">
       <c r="A38" s="15">
         <v>37</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F38" s="13"/>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="28">
       <c r="A39" s="15">
         <v>38</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F39" s="13"/>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="28">
       <c r="A40" s="15">
         <v>39</v>
       </c>
       <c r="B40" s="13"/>
       <c r="C40" s="5" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E40" s="13"/>
       <c r="F40" s="13"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="28">
       <c r="A41" s="15">
         <v>40</v>
       </c>
       <c r="B41" s="13"/>
       <c r="C41" s="8" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E41" s="13"/>
       <c r="F41" s="13"/>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" ht="28">
       <c r="A42" s="15">
         <v>41</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F42" s="13"/>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="28">
       <c r="A43" s="15">
         <v>42</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F43" s="13"/>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="28">
       <c r="A44" s="15">
         <v>43</v>
       </c>
       <c r="B44" s="13"/>
       <c r="C44" s="11" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E44" s="13"/>
       <c r="F44" s="13"/>
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" ht="28">
       <c r="A45" s="15">
         <v>44</v>
       </c>
       <c r="B45" s="13"/>
       <c r="C45" s="11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E45" s="13"/>
       <c r="F45" s="13"/>
       <c r="G45" s="2"/>
     </row>
-    <row r="46" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="28">
       <c r="A46" s="15">
         <v>45</v>
       </c>
       <c r="B46" s="13"/>
       <c r="C46" s="11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E46" s="13"/>
       <c r="F46" s="13"/>
       <c r="G46" s="2"/>
     </row>
-    <row r="47" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" ht="28">
       <c r="A47" s="15">
         <v>46</v>
       </c>
       <c r="B47" s="13"/>
       <c r="C47" s="8" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E47" s="13"/>
       <c r="F47" s="13"/>
       <c r="G47" s="2"/>
     </row>
-    <row r="48" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" ht="28">
       <c r="A48" s="15">
         <v>47</v>
       </c>
       <c r="B48" s="13"/>
       <c r="C48" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E48" s="13"/>
       <c r="F48" s="13"/>
       <c r="G48" s="2"/>
     </row>
-    <row r="49" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" ht="28">
       <c r="A49" s="15">
         <v>48</v>
       </c>
       <c r="B49" s="13"/>
       <c r="C49" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E49" s="13"/>
       <c r="F49" s="13"/>
       <c r="G49" s="2"/>
     </row>
-    <row r="50" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" ht="28">
       <c r="A50" s="15">
         <v>49</v>
       </c>
       <c r="B50" s="13"/>
       <c r="C50" s="8" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E50" s="13"/>
       <c r="F50" s="13"/>
       <c r="G50" s="2"/>
     </row>
-    <row r="51" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" ht="28">
       <c r="A51" s="15">
         <v>50</v>
       </c>
       <c r="B51" s="13"/>
       <c r="C51" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E51" s="13"/>
       <c r="F51" s="13"/>
       <c r="G51" s="2"/>
     </row>
-    <row r="52" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" ht="28">
       <c r="A52" s="15">
         <v>51</v>
       </c>
       <c r="B52" s="13"/>
       <c r="C52" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E52" s="13"/>
       <c r="F52" s="13"/>
       <c r="G52" s="2"/>
     </row>
-    <row r="53" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" ht="28">
       <c r="A53" s="15">
         <v>52</v>
       </c>
       <c r="B53" s="13"/>
       <c r="C53" s="8" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E53" s="13"/>
       <c r="F53" s="13"/>
       <c r="G53" s="2"/>
     </row>
-    <row r="54" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" ht="25.5" customHeight="1">
       <c r="A54" s="15">
         <v>53</v>
       </c>
       <c r="B54" s="13"/>
       <c r="C54" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E54" s="13"/>
       <c r="F54" s="13"/>
       <c r="G54" s="2"/>
     </row>
-    <row r="55" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" ht="42">
       <c r="A55" s="15">
         <v>54</v>
       </c>
       <c r="B55" s="13"/>
       <c r="C55" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E55" s="13"/>
       <c r="F55" s="13" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G55" s="2"/>
     </row>
-    <row r="56" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" ht="42">
       <c r="A56" s="15">
         <v>55</v>
       </c>
       <c r="B56" s="13"/>
       <c r="C56" s="11" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E56" s="13"/>
       <c r="F56" s="13"/>
       <c r="G56" s="2"/>
     </row>
-    <row r="57" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" ht="42">
       <c r="A57" s="15">
         <v>56</v>
       </c>
       <c r="B57" s="13"/>
       <c r="C57" s="11" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E57" s="13"/>
       <c r="F57" s="13"/>
       <c r="G57" s="2"/>
     </row>
-    <row r="58" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" ht="42">
       <c r="A58" s="15">
         <v>57</v>
       </c>
       <c r="B58" s="13"/>
       <c r="C58" s="11" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E58" s="13"/>
       <c r="F58" s="13"/>
       <c r="G58" s="2"/>
     </row>
-    <row r="59" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" ht="42">
       <c r="A59" s="15">
         <v>58</v>
       </c>
       <c r="B59" s="13"/>
       <c r="C59" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E59" s="13"/>
       <c r="F59" s="13" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G59" s="2"/>
     </row>
-    <row r="60" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" ht="42">
       <c r="A60" s="15">
         <v>59</v>
       </c>
       <c r="B60" s="13"/>
       <c r="C60" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E60" s="13"/>
       <c r="F60" s="13"/>
       <c r="G60" s="2"/>
     </row>
-    <row r="61" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" ht="42">
       <c r="A61" s="15">
         <v>60</v>
       </c>
       <c r="B61" s="13"/>
       <c r="C61" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E61" s="13"/>
       <c r="F61" s="13"/>
       <c r="G61" s="2"/>
     </row>
-    <row r="62" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" ht="42">
       <c r="A62" s="15">
         <v>61</v>
       </c>
       <c r="B62" s="13"/>
       <c r="C62" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E62" s="13"/>
       <c r="F62" s="13"/>
       <c r="G62" s="2"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7">
       <c r="A63" s="15">
         <v>62</v>
       </c>
       <c r="B63" s="13"/>
       <c r="C63" s="9" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E63" s="13"/>
       <c r="F63" s="13"/>
       <c r="G63" s="2"/>
     </row>
-    <row r="64" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" ht="24" customHeight="1">
       <c r="A64" s="15">
         <v>63</v>
       </c>
       <c r="B64" s="13"/>
       <c r="C64" s="10" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E64" s="13"/>
       <c r="F64" s="13"/>
       <c r="G64" s="2"/>
     </row>
-    <row r="65" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" ht="24" customHeight="1">
       <c r="A65" s="15">
         <v>64</v>
       </c>
       <c r="B65" s="13"/>
       <c r="C65" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E65" s="13"/>
       <c r="F65" s="13" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G65" s="2"/>
     </row>
-    <row r="66" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" ht="24" customHeight="1">
       <c r="A66" s="15">
         <v>65</v>
       </c>
       <c r="B66" s="13"/>
       <c r="C66" s="11" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E66" s="13"/>
       <c r="F66" s="13"/>
       <c r="G66" s="2"/>
     </row>
-    <row r="67" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" ht="24" customHeight="1">
       <c r="A67" s="15">
         <v>66</v>
       </c>
       <c r="B67" s="13"/>
       <c r="C67" s="11" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E67" s="13"/>
       <c r="F67" s="13"/>
       <c r="G67" s="2"/>
     </row>
-    <row r="68" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" ht="24" customHeight="1">
       <c r="A68" s="15">
         <v>67</v>
       </c>
       <c r="B68" s="13"/>
       <c r="C68" s="11" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E68" s="13"/>
       <c r="F68" s="13" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G68" s="2"/>
     </row>
-    <row r="69" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" ht="24" customHeight="1">
       <c r="A69" s="15">
         <v>68</v>
       </c>
       <c r="B69" s="13"/>
       <c r="C69" s="11" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E69" s="13"/>
       <c r="F69" s="13"/>
       <c r="G69" s="2"/>
     </row>
-    <row r="70" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" ht="33.5" customHeight="1">
       <c r="A70" s="15">
         <v>69</v>
       </c>
       <c r="B70" s="13"/>
       <c r="C70" s="10" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E70" s="13"/>
       <c r="F70" s="13"/>
       <c r="G70" s="2"/>
     </row>
-    <row r="71" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" ht="24" customHeight="1">
       <c r="A71" s="15">
         <v>70</v>
       </c>
       <c r="B71" s="13"/>
       <c r="C71" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E71" s="13"/>
       <c r="F71" s="13" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G71" s="2"/>
     </row>
-    <row r="72" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" ht="28">
       <c r="A72" s="15">
         <v>71</v>
       </c>
       <c r="B72" s="13"/>
       <c r="C72" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E72" s="13"/>
       <c r="F72" s="13"/>
       <c r="G72" s="2"/>
     </row>
-    <row r="73" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" ht="28">
       <c r="A73" s="15">
         <v>72</v>
       </c>
       <c r="B73" s="13"/>
       <c r="C73" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D73" s="4" t="s">
         <v>164</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>167</v>
       </c>
       <c r="E73" s="13"/>
       <c r="F73" s="13"/>
       <c r="G73" s="2"/>
     </row>
-    <row r="74" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" ht="28">
       <c r="A74" s="15">
         <v>73</v>
       </c>
       <c r="B74" s="13"/>
       <c r="C74" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E74" s="13"/>
       <c r="F74" s="13" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G74" s="2"/>
     </row>
-    <row r="75" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" ht="28">
       <c r="A75" s="15">
         <v>74</v>
       </c>
       <c r="B75" s="13"/>
       <c r="C75" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E75" s="13"/>
       <c r="F75" s="13"/>
       <c r="G75" s="2"/>
     </row>
-    <row r="76" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" ht="42">
       <c r="A76" s="15">
         <v>75</v>
       </c>
       <c r="B76" s="13"/>
       <c r="C76" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E76" s="13"/>
       <c r="F76" s="13"/>
       <c r="G76" s="2"/>
     </row>
-    <row r="77" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" ht="42">
       <c r="A77" s="15">
         <v>76</v>
       </c>
       <c r="B77" s="13"/>
       <c r="C77" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E77" s="13"/>
       <c r="F77" s="13"/>
       <c r="G77" s="2"/>
     </row>
-    <row r="78" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" ht="42">
       <c r="A78" s="15">
         <v>77</v>
       </c>
       <c r="B78" s="13"/>
       <c r="C78" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E78" s="13"/>
       <c r="F78" s="13"/>
       <c r="G78" s="2"/>
     </row>
-    <row r="79" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" ht="42">
       <c r="A79" s="15">
         <v>78</v>
       </c>
       <c r="B79" s="13"/>
       <c r="C79" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E79" s="13"/>
       <c r="F79" s="13"/>
       <c r="G79" s="2"/>
     </row>
-    <row r="80" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" ht="42">
       <c r="A80" s="15">
         <v>79</v>
       </c>
       <c r="B80" s="13"/>
       <c r="C80" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E80" s="13"/>
       <c r="F80" s="13"/>
       <c r="G80" s="2"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" ht="30">
       <c r="A81" s="15">
         <v>80</v>
       </c>
       <c r="B81" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C81" s="23"/>
+        <v>33</v>
+      </c>
+      <c r="C81" s="37" t="s">
+        <v>216</v>
+      </c>
       <c r="D81" s="23" t="s">
         <v>6</v>
       </c>
       <c r="E81" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F81" s="7"/>
-      <c r="G81" s="2"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G81" s="2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="45">
       <c r="A82" s="15">
         <v>81</v>
       </c>
       <c r="B82" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C82" s="23"/>
+        <v>34</v>
+      </c>
+      <c r="C82" s="37" t="s">
+        <v>452</v>
+      </c>
       <c r="D82" s="23" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E82" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F82" s="7"/>
       <c r="G82" s="2"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7">
       <c r="A83" s="15"/>
       <c r="B83" s="13"/>
       <c r="C83" s="3"/>
@@ -5577,8 +5780,9 @@
       <c r="G83" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="E1:E83"/>
+  <autoFilter ref="E1:E83" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/美智医疗/输血申请&收费项目.xlsx
+++ b/美智医疗/输血申请&收费项目.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A165E765-7DF7-485F-9BBD-DA2653211740}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="输血申请单" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="478">
   <si>
     <t>是否医院现有接口字段</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,1721 +83,1814 @@
     <t>收费标志</t>
   </si>
   <si>
+    <t>输入科室</t>
+  </si>
+  <si>
+    <t>输入操作员</t>
+  </si>
+  <si>
+    <t>输入时间</t>
+  </si>
+  <si>
+    <t>住院流水号</t>
+  </si>
+  <si>
+    <t>费用日期</t>
+  </si>
+  <si>
+    <t>项目数量</t>
+  </si>
+  <si>
+    <t>辅诊科室编码</t>
+  </si>
+  <si>
+    <t>HIS医嘱标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医嘱类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医嘱内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备血人编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备血人名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取血人编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取血人人名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输血人编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XPath路径说明：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recipe_id</t>
+  </si>
+  <si>
+    <t>recipe_date</t>
+  </si>
+  <si>
+    <t>recipe_drid</t>
+  </si>
+  <si>
+    <t>recipe_amount</t>
+  </si>
+  <si>
+    <t>execute_deptid</t>
+  </si>
+  <si>
+    <t>execute_person</t>
+  </si>
+  <si>
+    <t>execute_time</t>
+  </si>
+  <si>
+    <t>dismissed_flag</t>
+  </si>
+  <si>
+    <t>dismissed_operator</t>
+  </si>
+  <si>
+    <t>dismissed_time</t>
+  </si>
+  <si>
+    <t>recl</t>
+  </si>
+  <si>
+    <t>payment_flag</t>
+  </si>
+  <si>
+    <t>injury_flag</t>
+  </si>
+  <si>
+    <t>record_deptid</t>
+  </si>
+  <si>
+    <t>record_inputter</t>
+  </si>
+  <si>
+    <t>record_time</t>
+  </si>
+  <si>
+    <t>inpatient_flow_id</t>
+  </si>
+  <si>
+    <t>charge_date</t>
+  </si>
+  <si>
+    <t>item_num</t>
+  </si>
+  <si>
+    <t>requisition_dept</t>
+  </si>
+  <si>
+    <t>inputter</t>
+  </si>
+  <si>
+    <t>yi_zhu_id</t>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/id/item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/effectiveTime/any</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/pertinentInformation[1]/observation/code/displayName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/component2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用血紧急程度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/priorityCode/displayName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/expectedUseTime/any</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/subject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/verifier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/reason[2]/observation/code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输血目的描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/pertinentInformation[2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/component2/supplyRequest/code/displayName</t>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/pertinentInformation[5]/observation/code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CD类型检验项目编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/pertinentInformation[5]/observation/effectiveTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/pertinentInformation[5]/observation/value/displayName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CD类型检验项目检验结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST类型检验项目编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST类型检验项目检验结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/pertinentInformation[6]/observation/code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/pertinentInformation[6]/observation/value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PQ类型检验项目编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PQ类型检验项目检验结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/pertinentInformation[7]/observation/code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/pertinentInformation[7]/observation/value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就诊状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/componentOf1/encounter/effectiveTime/any</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/componentOf1/encounter/id/item[2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医疗机构代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医疗机构名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请日期</t>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/unitPriceAmt/numerator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/reason/organizer/id/item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/id/item[3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/id/item[4]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/effectiveTime/any</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收款日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/id/item[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收据号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/id/item[2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红冲账单流水号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账单码编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/code/displayName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账单码名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账单日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/effectiveTime/any</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/netAmt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账单金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账单金额单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV03/controlActProcess/subject/financialTransaction/reason/chargeGroup/netAmt</t>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/id/item[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/id/item[2]/@extension</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/code/displayName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用状态名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/effectiveTime/any</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目收费时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/reason/organizer/code/displayName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处方类别名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医嘱号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/reason/organizer/component/substanceAdministration/code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医嘱类别编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/reason/organizer/component/substanceAdministration/code/displayName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医嘱类别名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包装序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/reason/organizer/component/substanceAdministration/consumable/manufacturedProduct/id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/reason/organizer/component/substanceAdministration/consumable/manufacturedProduct/manufacturedProduct/code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/reason/organizer/component/substanceAdministration/consumable/manufacturedProduct/manufacturedProduct/code/displayName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用编码名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/reason/organizer/component/substanceAdministration/consumable/manufacturedProduct/subjectOf3/policy/code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医保类别编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/reason/organizer/component/substanceAdministration/consumable/manufacturedProduct/subjectOf3/policy/code/displayName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医保类别名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/coverage[1]/policyOrProgram/code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目分组编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/coverage[1]/policyOrProgram/code/displayName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目分组名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/coverage[2]/policyOrProgram/code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费别编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/coverage[2]/policyOrProgram/code/displayName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费别明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/pertinentInformation/encounter/location/serviceDeliveryLocation/serviceProviderOrganization/id/item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/pertinentInformation/encounter/location/serviceDeliveryLocation/serviceProviderOrganization/name/item/part</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用执行科室编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用执行科室名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/pertinentInformation/encounter/authorization/consent/performer/assignedEntity/id/item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用确认人编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用确认人姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/pertinentInformation/encounter/authorization/consent/performer/assignedEntity/assignedPerson/name/item/part</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/postingTo2/account/component[1]/account/id/item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医保号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/postingTo2/account/component[1]/account/code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/postingTo2/account/component[1]/account/code/displayName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医疗付费方式名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/postingTo2/account/component[1]/account/balanceAmt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医保付费方式编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/postingTo2/account/component[2]/account/balanceAmt</t>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/postingTo2/account/component[2]/account/id/item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医保外卡号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/postingTo2/account/component[2]/account/code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付费类别编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/postingTo2/account/component[2]/account/code/displayName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医疗付费金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医疗付费金额单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医疗付费方式名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/postingTo2/account/component[2]/account/balanceAmt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/postingTo2/account/component[3]/account/balanceAmt</t>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/creationTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/interactionId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交互ID extension="FIAB_IN020001UV02"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/processingCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息发送系统状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/processingModeCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息处理模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/acceptAckCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息应答</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/receiver/device/id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息接受者ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/sender/device/id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息发送者ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息封装内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息交互类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封装对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用交易</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/id/item[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/author</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收款人信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/author/guarantorRole/id/item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收款人编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/author/guarantorRole/guarantorPerson/name/item/part</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收款人姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账单信息（可循环）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/postingTo2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/postingTo2/account/component[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医保内金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/postingTo2/account/component[2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医保外金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用明细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用状态码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/unitQuantity/numerator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/reason</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用项目信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处方号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/reason/organizer/component/substanceAdministration/id/item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/coverage[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收费项目分组信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/coverage[2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费别信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/pertinentInformation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用相关信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/pertinentInformation/encounter/specialCourtesiesCode/item</t>
+  </si>
+  <si>
+    <t>婴儿标记信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/pertinentInformation/encounter/authorization/consent/author/responsibleParty/agentOrganization/id/item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用申请科室编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/pertinentInformation/encounter/authorization/consent/author/responsibleParty/agentOrganization/name/item/part</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用申请科室名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/pertinentInformation/encounter/authorization/consent/author/responsibleParty/representedPerson/id/item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用申请人编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/pertinentInformation/encounter/authorization/consent/author/responsibleParty/representedPerson/name/item/part</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用申请人名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_orderno</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>charge_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>charge_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV03/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/unitQuantity/numerator</t>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV03/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/unitPriceAmt/numerator</t>
+  </si>
+  <si>
+    <t>单价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单价单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>charge_unit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_amount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/creationTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/interactionId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交互ID extension="POOR_IN200901UV24"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/processingCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息发送系统的状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/processingModeCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/acceptAckCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/receiver/device/id/item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接受者ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/sender/device/id/item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送者ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息交互类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封装对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请单信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/text</t>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病人信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>患者ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/subject/patient/id/item[2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/subject/patient/id/item[3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就诊号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>域ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/subject/patient/id/item[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/subject/patient/addr/item/part[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病区编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/subject/patient/addr/item/part[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病区名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/subject/patient/addr/item/part[2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>床号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/subject/patient/telecom/item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/subject/patient/confidentialityCode/item/displayName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病人信息隐私级别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/subject/patient/patientPerson/id/item[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/subject/patient/patientPerson/id/item[2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/subject/patient/patientPerson/name/item/part</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/subject/patient/patientPerson/administrativeGenderCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/subject/patient/patientPerson/birthTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出生日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/subject/patient/patientPerson/addr/item/part</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/subject/patient/patientPerson/maritalStatusCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>婚姻状况编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/subject/patient/patientPerson/contactParty/contactPerson/name/item/part</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/subject/patient/patientPerson/birthPlace/addr/part</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出生地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病人科室编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/subject/patient/providerOrganization/name/item/part</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病人科室名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/subject/patient/providerOrganization/id/item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/subject/patient/coveredPartyOf/coverageRecord/component/policyOrProgram/code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/author</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/author/assignedEntity/id/item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请医师编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/author/assignedEntity/assignedPerson/name/item/part</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请医师名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/author/assignedEntity/representedOrganization/id/item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请科室编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recipe_deptid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/author/assignedEntity/representedOrganization/name/item/part</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请科室名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/verifier/time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/verifier/assignedEntity/id/item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认人编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/verifier/assignedEntity/assignedPerson/name/item/part</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认人姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/reason[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/reason[1]/observation/code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诊断类别编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/reason[1]/observation/code/displayName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诊断类别名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/reason[1]/observation/statusCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态，模型中要求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/reason[1]/observation/value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疾病编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/reason[1]/observation/value/displayName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疾病名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治疗目的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/reason[2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输血目的编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/reason[2]/observation/value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临床路径项目编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/pertinentInformation[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临床路径项目序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临床路径项目编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临床路径项目序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/pertinentInformation[2]/observation/code/displayName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/pertinentInformation[3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务操作时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/pertinentInformation[3]/observation/value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务操作时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/pertinentInformation[4]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病史及自身输血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/pertinentInformation[4]/observation/code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布尔项目编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/pertinentInformation[4]/observation/text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/pertinentInformation[5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CD类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CD类型检验项目验血日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/pertinentInformation[6]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/pertinentInformation[7]</t>
+  </si>
+  <si>
+    <t>PQ类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请血液信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/component2/supplyRequest/id/item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医嘱号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/component2/supplyRequest/code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输血品种代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输血品种名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/component2/supplyRequest/quantity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/component2/supplyRequest/pertinentInformation[1]/observation/value/displayName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请ABO血型编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/component2/supplyRequest/pertinentInformation[2]/observation/value/displayName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请RH血型编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/component2/supplyRequest/pertinentInformation[3]/observation/value/displayName</t>
+  </si>
+  <si>
+    <t>血液特殊要求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/componentOf1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就诊信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/componentOf1/encounter/id/item[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就诊次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就诊流水号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/componentOf1/encounter/code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就诊类别编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/componentOf1/encounter/code/displayName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就诊类别名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/componentOf1/encounter/statusCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就诊/住院时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>patient_cardno</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emergency_flag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>急诊标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>register_trade_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clinical_deptid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>priorityCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expectedUseTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用血时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>telecom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>confidentialityCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>administrativeGenderCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>birthTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maritalStatusCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contactPerson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>birthPlace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statusCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effectiveTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clinical_deptname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wholeOrganization_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>patientPerson_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wholeOrganization_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recipe_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recipe_deptname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>verifier_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>verifier_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临床诊断 1..n可多项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>observation_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>observation_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>observation_statuscode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>supplyRequest_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>supplyRequest_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>supplyRequest_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>supplyRequest_quantityvalue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effectiveTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guarantorPerson_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guarantorPerson_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recipe_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recipe_text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证号  root="1.2.156.112635.1.2.1.9"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>献血证号  root="1.2.156.112635.1.2.1.10"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>supplyRequest_quantityunit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/component3/supplyRequest/quantity</t>
+  </si>
+  <si>
+    <t>申请剂量  value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剂量单位  unit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/id/item[2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">病人ID  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就诊号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就诊次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">域ID </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>院区编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>院区名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/reason/organizer/component/substanceAdministration/effectiveTime/any/@value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和医嘱号同一个xpath，因为收费是针对单个医嘱的，一个医嘱对应唯一一个申请单号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建议不再申请中，属于撤销消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV24/controlActProcess/subject/supplyRequest/component2/supplyRequest/performer/assignedEntity/id/item/@extension</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV24/controlActProcess/subject/supplyRequest/component2/supplyRequest/performer/assignedEntity/representedOrganization/name/item/part/@value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行时间在申请时是未知的，建议去掉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV24/controlActProcess/subject/supplyRequest/component2/supplyRequest/pertinentInformation[4]/observation/value/@value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>工伤标志</t>
-  </si>
-  <si>
-    <t>输入科室</t>
-  </si>
-  <si>
-    <t>输入操作员</t>
-  </si>
-  <si>
-    <t>输入时间</t>
-  </si>
-  <si>
-    <t>住院流水号</t>
-  </si>
-  <si>
-    <t>费用日期</t>
-  </si>
-  <si>
-    <t>项目数量</t>
-  </si>
-  <si>
-    <t>辅诊科室编码</t>
-  </si>
-  <si>
-    <t>HIS医嘱标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医嘱类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医嘱内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备血人编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备血人名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取血人编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取血人人名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输血人编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XPath路径说明：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>recipe_id</t>
-  </si>
-  <si>
-    <t>recipe_date</t>
-  </si>
-  <si>
-    <t>recipe_drid</t>
-  </si>
-  <si>
-    <t>recipe_amount</t>
-  </si>
-  <si>
-    <t>execute_deptid</t>
-  </si>
-  <si>
-    <t>execute_person</t>
-  </si>
-  <si>
-    <t>execute_time</t>
-  </si>
-  <si>
-    <t>dismissed_flag</t>
-  </si>
-  <si>
-    <t>dismissed_operator</t>
-  </si>
-  <si>
-    <t>dismissed_time</t>
-  </si>
-  <si>
-    <t>recl</t>
-  </si>
-  <si>
-    <t>payment_flag</t>
-  </si>
-  <si>
-    <t>injury_flag</t>
-  </si>
-  <si>
-    <t>record_deptid</t>
-  </si>
-  <si>
-    <t>record_inputter</t>
-  </si>
-  <si>
-    <t>record_time</t>
-  </si>
-  <si>
-    <t>inpatient_flow_id</t>
-  </si>
-  <si>
-    <t>charge_date</t>
-  </si>
-  <si>
-    <t>item_num</t>
-  </si>
-  <si>
-    <t>requisition_dept</t>
-  </si>
-  <si>
-    <t>inputter</t>
-  </si>
-  <si>
-    <t>yi_zhu_id</t>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/id/item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/effectiveTime/any</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/pertinentInformation[1]/observation/code/displayName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/component2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用血紧急程度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/priorityCode/displayName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/expectedUseTime/any</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/subject</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/verifier</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/reason[2]/observation/code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输血目的描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/pertinentInformation[2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/component2/supplyRequest/code/displayName</t>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/pertinentInformation[5]/observation/code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CD类型检验项目编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/pertinentInformation[5]/observation/effectiveTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/pertinentInformation[5]/observation/value/displayName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CD类型检验项目检验结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST类型检验项目编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST类型检验项目检验结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/pertinentInformation[6]/observation/code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/pertinentInformation[6]/observation/value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PQ类型检验项目编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PQ类型检验项目检验结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/pertinentInformation[7]/observation/code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/pertinentInformation[7]/observation/value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>就诊状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/componentOf1/encounter/effectiveTime/any</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/componentOf1/encounter/id/item[2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/subject/patient/providerOrganization/asOrganizationPartOf/wholeOrganization/id/item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医疗机构代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/subject/patient/providerOrganization/asOrganizationPartOf/wholeOrganization/name/item/part</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医疗机构名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请日期</t>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/unitPriceAmt/numerator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/reason/organizer/id/item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/id/item[3]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/id/item[4]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/effectiveTime/any</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收款日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/id/item[1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收据号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/id/item[2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红冲账单流水号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账单码编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/code/displayName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账单码名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账单日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/effectiveTime/any</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/netAmt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账单金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账单金额单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV03/controlActProcess/subject/financialTransaction/reason/chargeGroup/netAmt</t>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/id/item[1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/id/item[2]/@extension</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结算次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/code/displayName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>费用状态名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/effectiveTime/any</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目收费时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/reason/organizer/code/displayName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>处方类别名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医嘱号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/reason/organizer/component/substanceAdministration/code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医嘱类别编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/reason/organizer/component/substanceAdministration/code/displayName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医嘱类别名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>包装序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/reason/organizer/component/substanceAdministration/consumable/manufacturedProduct/id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/reason/organizer/component/substanceAdministration/consumable/manufacturedProduct/manufacturedProduct/code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>费用编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/reason/organizer/component/substanceAdministration/consumable/manufacturedProduct/manufacturedProduct/code/displayName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>费用编码名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/reason/organizer/component/substanceAdministration/consumable/manufacturedProduct/subjectOf3/policy/code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医保类别编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/reason/organizer/component/substanceAdministration/consumable/manufacturedProduct/subjectOf3/policy/code/displayName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医保类别名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/coverage[1]/policyOrProgram/code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目分组编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/coverage[1]/policyOrProgram/code/displayName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目分组名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/coverage[2]/policyOrProgram/code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>费别编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/coverage[2]/policyOrProgram/code/displayName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>费别明细</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/pertinentInformation/encounter/location/serviceDeliveryLocation/serviceProviderOrganization/id/item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/pertinentInformation/encounter/location/serviceDeliveryLocation/serviceProviderOrganization/name/item/part</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>费用执行科室编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>费用执行科室名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/pertinentInformation/encounter/authorization/consent/performer/assignedEntity/id/item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>费用确认人编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>费用确认人姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/pertinentInformation/encounter/authorization/consent/performer/assignedEntity/assignedPerson/name/item/part</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/postingTo2/account/component[1]/account/id/item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医保号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/postingTo2/account/component[1]/account/code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/postingTo2/account/component[1]/account/code/displayName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医疗付费方式名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/postingTo2/account/component[1]/account/balanceAmt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医保付费方式编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/postingTo2/account/component[2]/account/balanceAmt</t>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/postingTo2/account/component[2]/account/id/item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医保外卡号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/postingTo2/account/component[2]/account/code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>付费类别编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/postingTo2/account/component[2]/account/code/displayName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医疗付费金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医疗付费金额单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医疗付费方式名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/postingTo2/account/component[2]/account/balanceAmt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/postingTo2/account/component[3]/account/balanceAmt</t>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根节点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/creationTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息创建时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/interactionId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交互ID extension="FIAB_IN020001UV02"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/processingCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息发送系统状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/processingModeCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息处理模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/acceptAckCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息应答</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/receiver/device/id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息接受者ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/sender/device/id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息发送者ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息封装内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息交互类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>封装对象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>费用交易</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/id/item[1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/author</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收款人信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/author/guarantorRole/id/item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收款人编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/author/guarantorRole/guarantorPerson/name/item/part</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收款人姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账单信息（可循环）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/postingTo2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/postingTo2/account/component[1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医保内金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/postingTo2/account/component[2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医保外金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>费用明细</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>费用状态码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/unitQuantity/numerator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/reason</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>费用项目信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>处方号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/reason/organizer/component/substanceAdministration/id/item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/coverage[1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收费项目分组信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/coverage[2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>费别信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/pertinentInformation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>费用相关信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/pertinentInformation/encounter/specialCourtesiesCode/item</t>
-  </si>
-  <si>
-    <t>婴儿标记信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/pertinentInformation/encounter/authorization/consent/author/responsibleParty/agentOrganization/id/item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>费用申请科室编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/pertinentInformation/encounter/authorization/consent/author/responsibleParty/agentOrganization/name/item/part</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>费用申请科室名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/pertinentInformation/encounter/authorization/consent/author/responsibleParty/representedPerson/id/item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>费用申请人编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/pertinentInformation/encounter/authorization/consent/author/responsibleParty/representedPerson/name/item/part</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>费用申请人名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_orderno</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>charge_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>charge_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV03/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/unitQuantity/numerator</t>
-  </si>
-  <si>
-    <t>数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV03/controlActProcess/subject/financialTransaction/reason/chargeGroup/component/chargeDetail/unitPriceAmt/numerator</t>
-  </si>
-  <si>
-    <t>单价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单价单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>charge_unit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>item_amount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根节点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/creationTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息创建时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/interactionId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交互ID extension="POOR_IN200901UV24"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/processingCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息发送系统的状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/processingModeCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/acceptAckCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/receiver/device/id/item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接受者ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/sender/device/id/item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送者ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息交互类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>封装对象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请单信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/text</t>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>病人信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>患者ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/subject/patient/id/item[2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/subject/patient/id/item[3]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>就诊号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>域ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/subject/patient/id/item[1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/subject/patient/addr/item/part[1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>病区编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/subject/patient/addr/item/part[1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>病区名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/subject/patient/addr/item/part[2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>床号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/subject/patient/telecom/item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/subject/patient/confidentialityCode/item/displayName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>病人信息隐私级别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/subject/patient/patientPerson/id/item[1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/subject/patient/patientPerson/id/item[2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/subject/patient/patientPerson/name/item/part</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/subject/patient/patientPerson/administrativeGenderCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>性别编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/subject/patient/patientPerson/birthTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出生日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/subject/patient/patientPerson/addr/item/part</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/subject/patient/patientPerson/maritalStatusCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>婚姻状况编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/subject/patient/patientPerson/contactParty/contactPerson/name/item/part</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系人姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/subject/patient/patientPerson/birthPlace/addr/part</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出生地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>病人科室编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/subject/patient/providerOrganization/name/item/part</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>病人科室名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/subject/patient/providerOrganization/id/item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/subject/patient/coveredPartyOf/coverageRecord/component/policyOrProgram/code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/author</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/author/assignedEntity/id/item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请医师编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/author/assignedEntity/assignedPerson/name/item/part</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请医师名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/author/assignedEntity/representedOrganization/id/item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请科室编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>recipe_deptid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/author/assignedEntity/representedOrganization/name/item/part</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请科室名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/verifier/time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/verifier/assignedEntity/id/item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认人编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/verifier/assignedEntity/assignedPerson/name/item/part</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认人姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/reason[1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/reason[1]/observation/code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>诊断类别编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/reason[1]/observation/code/displayName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>诊断类别名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/reason[1]/observation/statusCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态，模型中要求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/reason[1]/observation/value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>疾病编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/reason[1]/observation/value/displayName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>疾病名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>治疗目的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/reason[2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输血目的编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/reason[2]/observation/value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>临床路径项目编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/pertinentInformation[1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>临床路径项目序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>临床路径项目编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>临床路径项目序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/pertinentInformation[2]/observation/code/displayName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/pertinentInformation[3]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>业务操作时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/pertinentInformation[3]/observation/value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>业务操作时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/pertinentInformation[4]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>病史及自身输血</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/pertinentInformation[4]/observation/code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>布尔项目编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/pertinentInformation[4]/observation/text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/pertinentInformation[5]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CD类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CD类型检验项目验血日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/pertinentInformation[6]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/pertinentInformation[7]</t>
-  </si>
-  <si>
-    <t>PQ类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请血液信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/component2/supplyRequest/id/item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医嘱号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/component2/supplyRequest/code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输血品种代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输血品种名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/component2/supplyRequest/quantity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/component2/supplyRequest/pertinentInformation[1]/observation/value/displayName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请ABO血型编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/component2/supplyRequest/pertinentInformation[2]/observation/value/displayName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请RH血型编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/component2/supplyRequest/pertinentInformation[3]/observation/value/displayName</t>
-  </si>
-  <si>
-    <t>血液特殊要求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/componentOf1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>就诊信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/componentOf1/encounter/id/item[1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>就诊次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>就诊流水号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/componentOf1/encounter/code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>就诊类别编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/componentOf1/encounter/code/displayName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>就诊类别名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/componentOf1/encounter/statusCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>就诊/住院时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>patient_cardno</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>emergency_flag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>急诊标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>register_trade_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clinical_deptid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>priorityCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>expectedUseTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用血时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>telecom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>confidentialityCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>administrativeGenderCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>birthTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>maritalStatusCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>contactPerson</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>birthPlace</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>statusCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effectiveTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clinical_deptname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wholeOrganization_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>patientPerson_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wholeOrganization_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>recipe_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>recipe_deptname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>verifier_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>verifier_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>临床诊断 1..n可多项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>observation_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>observation_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>observation_statuscode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>supplyRequest_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>supplyRequest_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>supplyRequest_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>supplyRequest_quantityvalue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effectiveTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guarantorPerson_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>guarantorPerson_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>recipe_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>recipe_text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份证号  root="1.2.156.112635.1.2.1.9"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>献血证号  root="1.2.156.112635.1.2.1.10"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>supplyRequest_quantityunit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/POOR_IN200901UV/controlActProcess/subject/supplyRequest/component3/supplyRequest/quantity</t>
-  </si>
-  <si>
-    <t>申请剂量  value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剂量单位  unit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/FIAB_IN020001UV02/controlActProcess/subject/financialTransaction/id/item[2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">病人ID  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>就诊号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>就诊次数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">域ID </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>院区编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>院区名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV24/controlActProcess/subject/supplyRequest/component2/supplyRequest/pertinentInformation[5]/observation/value/@value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>什么的输入？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应位置有错，应该在 /POOR_IN200901UV24/controlActProcess/subject/supplyRequest/componentOf1/encounter/code/displayName/@value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和执行科室是同一个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和上面的输入操作员有什么区别？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和医嘱ID重复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和输血品种代码重复，这是一个通用定义，医嘱类型在血液这块就是输血品种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV24/controlActProcess/subject/supplyRequest/text/@value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV24/controlActProcess/subject/supplyRequest/component2/supplyRequest/pertinentInformation[6]/observation/author/relatedEntity/id/item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV24/controlActProcess/subject/supplyRequest/component2/supplyRequest/pertinentInformation[6]/observation/author/relatedEntity/relatedPerson/name/item/part/@value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV24/controlActProcess/subject/supplyRequest/component2/supplyRequest/subjectOf6/annotation/text/@value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV24/controlActProcess/subject/supplyRequest/component2/supplyRequest/pertinentInformation[4]/observation/effectiveTime/any/@value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV24/controlActProcess/subject/supplyRequest/component2/supplyRequest/pertinentInformation[5]/observation/code/displayName/@value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处方类型和医嘱类型是相同含义，重复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV24/controlActProcess/subject/supplyRequest/subject/patient/providerOrganization/asOrganizationPartOf/wholeOrganization/id/item/@extension</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV24/controlActProcess/subject/supplyRequest/subject/patient/providerOrganization/asOrganizationPartOf/wholeOrganization/name/item/part/@value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV24/controlActProcess/subject/supplyRequest/subject/patient/providerOrganization/asOrganizationPartOf/wholeOrganization/asOrganizationPartOf/wholeOrganization/id/item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV24/controlActProcess/subject/supplyRequest/subject/patient/providerOrganization/asOrganizationPartOf/wholeOrganization/asOrganizationPartOf/wholeOrganization/name/item/part</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1898,6 +1992,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1955,10 +2057,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2036,17 +2139,11 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2064,9 +2161,23 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2343,22 +2454,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H123"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D105" sqref="D105"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="22.33203125" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.625" customWidth="1"/>
-    <col min="2" max="2" width="23.75" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23.77734375" customWidth="1"/>
     <col min="3" max="3" width="41" customWidth="1"/>
-    <col min="4" max="4" width="36.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -2366,10 +2477,10 @@
         <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -2382,1897 +2493,1971 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21">
         <v>1</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="9" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
     </row>
-    <row r="3" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="21">
         <v>2</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="14" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
     </row>
-    <row r="4" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21">
         <v>3</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="14" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
     </row>
-    <row r="5" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="21">
         <v>4</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="14" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
     </row>
-    <row r="6" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21">
         <v>5</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="14" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
     </row>
-    <row r="7" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21">
         <v>6</v>
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="14" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
     </row>
-    <row r="8" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21">
         <v>7</v>
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="14" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
     </row>
-    <row r="9" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21">
         <v>8</v>
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="14" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
     </row>
-    <row r="10" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21">
         <v>9</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="14" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
     </row>
-    <row r="11" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="21">
         <v>10</v>
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="10" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
     </row>
-    <row r="12" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="21">
         <v>11</v>
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="14" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
     </row>
-    <row r="13" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="21">
         <v>12</v>
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="10" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
     </row>
-    <row r="14" spans="1:8" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" s="16" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A14" s="21">
         <v>13</v>
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="10" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
     </row>
-    <row r="15" spans="1:8" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" s="16" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A15" s="21">
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F15" s="13"/>
     </row>
-    <row r="16" spans="1:8" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" s="16" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A16" s="21">
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" s="16" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A17" s="21">
         <v>16</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F17" s="13"/>
     </row>
-    <row r="18" spans="1:6" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" s="16" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A18" s="21">
         <v>17</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
     </row>
-    <row r="19" spans="1:6" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" s="16" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A19" s="21">
         <v>18</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
     </row>
-    <row r="20" spans="1:6" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" s="16" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A20" s="21">
         <v>19</v>
       </c>
       <c r="B20" s="13"/>
       <c r="C20" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
     </row>
-    <row r="21" spans="1:6" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" s="16" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A21" s="21">
         <v>20</v>
       </c>
       <c r="B21" s="13"/>
       <c r="C21" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E21" s="13"/>
       <c r="F21" s="13" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="16" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A22" s="21">
         <v>21</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E22" s="13" t="s">
         <v>3</v>
       </c>
       <c r="F22" s="13"/>
     </row>
-    <row r="23" spans="1:6" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" s="16" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A23" s="21">
         <v>22</v>
       </c>
       <c r="B23" s="13"/>
       <c r="C23" s="3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
     </row>
-    <row r="24" spans="1:6" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" s="16" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A24" s="21">
         <v>23</v>
       </c>
       <c r="B24" s="13"/>
       <c r="C24" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E24" s="13"/>
       <c r="F24" s="13" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="16" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A25" s="21">
         <v>24</v>
       </c>
       <c r="B25" s="13"/>
       <c r="C25" s="3" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
     </row>
-    <row r="26" spans="1:6" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" s="16" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A26" s="21">
         <v>25</v>
       </c>
       <c r="B26" s="13"/>
       <c r="C26" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
     </row>
-    <row r="27" spans="1:6" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" s="16" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A27" s="21">
         <v>26</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
     </row>
-    <row r="28" spans="1:6" s="16" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" s="16" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A28" s="21">
         <v>27</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
     </row>
-    <row r="29" spans="1:6" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" s="16" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A29" s="21">
         <v>28</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
     </row>
-    <row r="30" spans="1:6" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" s="16" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A30" s="21">
         <v>29</v>
       </c>
       <c r="B30" s="13"/>
       <c r="C30" s="3" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
     </row>
-    <row r="31" spans="1:6" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" s="16" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A31" s="21">
         <v>30</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
     </row>
-    <row r="32" spans="1:6" s="16" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" s="16" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A32" s="21">
         <v>31</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
     </row>
-    <row r="33" spans="1:6" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" s="16" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A33" s="21">
         <v>32</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
     </row>
-    <row r="34" spans="1:6" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" s="16" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A34" s="21">
         <v>33</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E34" s="13"/>
       <c r="F34" s="13"/>
     </row>
-    <row r="35" spans="1:6" s="16" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" s="16" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A35" s="21">
         <v>34</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E35" s="13"/>
       <c r="F35" s="13"/>
     </row>
-    <row r="36" spans="1:6" s="16" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" s="16" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A36" s="21">
         <v>35</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E36" s="13"/>
       <c r="F36" s="13"/>
     </row>
-    <row r="37" spans="1:6" s="16" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" s="16" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A37" s="21">
         <v>36</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E37" s="13"/>
       <c r="F37" s="13"/>
     </row>
-    <row r="38" spans="1:6" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" s="16" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A38" s="21">
         <v>37</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E38" s="13" t="s">
         <v>3</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" s="16" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="16" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A39" s="21">
         <v>38</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E39" s="13"/>
       <c r="F39" s="13"/>
     </row>
-    <row r="40" spans="1:6" s="16" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" s="16" customFormat="1" ht="69" x14ac:dyDescent="0.25">
       <c r="A40" s="21">
         <v>39</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>87</v>
+        <v>476</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E40" s="13"/>
       <c r="F40" s="13" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" s="16" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="16" customFormat="1" ht="69" x14ac:dyDescent="0.25">
       <c r="A41" s="21">
         <v>40</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>89</v>
+        <v>477</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E41" s="13"/>
       <c r="F41" s="13"/>
     </row>
-    <row r="42" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" s="16" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A42" s="25">
         <v>41</v>
       </c>
       <c r="B42" s="27"/>
-      <c r="C42" s="29"/>
+      <c r="C42" s="40" t="s">
+        <v>474</v>
+      </c>
       <c r="D42" s="27" t="s">
-        <v>453</v>
-      </c>
-      <c r="E42" s="30" t="s">
-        <v>452</v>
+        <v>450</v>
+      </c>
+      <c r="E42" s="29" t="s">
+        <v>449</v>
       </c>
       <c r="F42" s="13"/>
     </row>
-    <row r="43" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="31">
+    <row r="43" spans="1:7" s="16" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A43" s="30">
         <v>42</v>
       </c>
-      <c r="B43" s="30"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="30" t="s">
-        <v>454</v>
-      </c>
-      <c r="E43" s="30" t="s">
-        <v>452</v>
+      <c r="B43" s="29"/>
+      <c r="C43" s="40" t="s">
+        <v>475</v>
+      </c>
+      <c r="D43" s="29" t="s">
+        <v>451</v>
+      </c>
+      <c r="E43" s="29" t="s">
+        <v>449</v>
       </c>
       <c r="F43" s="13"/>
     </row>
-    <row r="44" spans="1:6" s="16" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" s="16" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A44" s="21">
         <v>43</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C44" s="19" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="F44" s="13"/>
-    </row>
-    <row r="45" spans="1:6" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="G44" s="16" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="16" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A45" s="21">
         <v>44</v>
       </c>
       <c r="B45" s="13"/>
       <c r="C45" s="20" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E45" s="13"/>
       <c r="F45" s="13"/>
     </row>
-    <row r="46" spans="1:6" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" s="16" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A46" s="21">
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E46" s="7"/>
       <c r="F46" s="13" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" s="16" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" s="16" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A47" s="21">
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F47" s="13"/>
     </row>
-    <row r="48" spans="1:6" s="16" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" s="16" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A48" s="21">
         <v>47</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E48" s="13" t="s">
         <v>3</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" s="16" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="16" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A49" s="21">
         <v>48</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E49" s="13"/>
       <c r="F49" s="13"/>
     </row>
-    <row r="50" spans="1:6" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" s="16" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A50" s="21">
         <v>49</v>
       </c>
       <c r="B50" s="13"/>
       <c r="C50" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="E50" s="13"/>
       <c r="F50" s="13"/>
     </row>
-    <row r="51" spans="1:6" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" s="16" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A51" s="21">
         <v>50</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E51" s="13"/>
       <c r="F51" s="13"/>
     </row>
-    <row r="52" spans="1:6" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" s="16" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A52" s="21">
         <v>51</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E52" s="13"/>
       <c r="F52" s="13" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" s="16" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" s="16" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A53" s="21">
         <v>52</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E53" s="13"/>
       <c r="F53" s="13"/>
     </row>
-    <row r="54" spans="1:6" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" s="16" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A54" s="21">
         <v>53</v>
       </c>
       <c r="B54" s="13"/>
       <c r="C54" s="20" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="E54" s="13"/>
       <c r="F54" s="13"/>
     </row>
-    <row r="55" spans="1:6" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" s="16" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A55" s="21">
         <v>54</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E55" s="13"/>
       <c r="F55" s="13"/>
     </row>
-    <row r="56" spans="1:6" s="16" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" s="16" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A56" s="21">
         <v>55</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E56" s="13"/>
       <c r="F56" s="13"/>
     </row>
-    <row r="57" spans="1:6" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" s="16" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A57" s="21">
         <v>56</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E57" s="13"/>
       <c r="F57" s="13"/>
     </row>
-    <row r="58" spans="1:6" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" s="16" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A58" s="21">
         <v>57</v>
       </c>
       <c r="B58" s="13"/>
       <c r="C58" s="19" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E58" s="13"/>
       <c r="F58" s="13"/>
     </row>
-    <row r="59" spans="1:6" s="16" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" s="16" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A59" s="21">
         <v>58</v>
       </c>
       <c r="B59" s="13"/>
       <c r="C59" s="19" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E59" s="13"/>
       <c r="F59" s="13"/>
     </row>
-    <row r="60" spans="1:6" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" s="16" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A60" s="21">
         <v>59</v>
       </c>
       <c r="B60" s="13"/>
       <c r="C60" s="20" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E60" s="13"/>
       <c r="F60" s="13"/>
     </row>
-    <row r="61" spans="1:6" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" s="16" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A61" s="21">
         <v>60</v>
       </c>
       <c r="B61" s="13"/>
       <c r="C61" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E61" s="13"/>
       <c r="F61" s="13"/>
     </row>
-    <row r="62" spans="1:6" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" s="16" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A62" s="21">
         <v>61</v>
       </c>
       <c r="B62" s="13"/>
       <c r="C62" s="19" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E62" s="13"/>
       <c r="F62" s="13"/>
     </row>
-    <row r="63" spans="1:6" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" s="16" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A63" s="21">
         <v>62</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C63" s="20" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E63" s="13" t="s">
         <v>3</v>
       </c>
       <c r="F63" s="13"/>
     </row>
-    <row r="64" spans="1:6" s="16" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" s="16" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A64" s="21">
         <v>63</v>
       </c>
       <c r="B64" s="13"/>
       <c r="C64" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E64" s="13"/>
       <c r="F64" s="13"/>
     </row>
-    <row r="65" spans="1:6" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" s="16" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A65" s="21">
         <v>64</v>
       </c>
       <c r="B65" s="13"/>
       <c r="C65" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E65" s="13"/>
       <c r="F65" s="13"/>
     </row>
-    <row r="66" spans="1:6" s="16" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" s="16" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A66" s="21">
         <v>65</v>
       </c>
       <c r="B66" s="13"/>
       <c r="C66" s="19" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E66" s="13"/>
       <c r="F66" s="13"/>
     </row>
-    <row r="67" spans="1:6" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" s="16" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A67" s="21">
         <v>66</v>
       </c>
       <c r="B67" s="13"/>
       <c r="C67" s="20" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E67" s="13"/>
       <c r="F67" s="13"/>
     </row>
-    <row r="68" spans="1:6" s="16" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" s="16" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A68" s="21">
         <v>67</v>
       </c>
       <c r="B68" s="13"/>
       <c r="C68" s="19" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D68" s="13" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E68" s="13"/>
       <c r="F68" s="13"/>
     </row>
-    <row r="69" spans="1:6" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" s="16" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A69" s="21">
         <v>68</v>
       </c>
       <c r="B69" s="13"/>
       <c r="C69" s="20" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E69" s="13"/>
       <c r="F69" s="13"/>
     </row>
-    <row r="70" spans="1:6" s="16" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" s="16" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A70" s="21">
         <v>69</v>
       </c>
       <c r="B70" s="13"/>
       <c r="C70" s="19" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E70" s="13"/>
       <c r="F70" s="13"/>
     </row>
-    <row r="71" spans="1:6" s="16" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" s="16" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A71" s="21">
         <v>70</v>
       </c>
       <c r="B71" s="13"/>
       <c r="C71" s="19" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E71" s="13"/>
       <c r="F71" s="13"/>
     </row>
-    <row r="72" spans="1:6" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" s="16" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A72" s="21">
         <v>71</v>
       </c>
       <c r="B72" s="13"/>
       <c r="C72" s="20" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E72" s="13"/>
       <c r="F72" s="13"/>
     </row>
-    <row r="73" spans="1:6" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" s="16" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A73" s="21">
         <v>72</v>
       </c>
       <c r="B73" s="13"/>
       <c r="C73" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D73" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="E73" s="13"/>
       <c r="F73" s="13"/>
     </row>
-    <row r="74" spans="1:6" s="16" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" s="16" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A74" s="21">
         <v>73</v>
       </c>
       <c r="B74" s="13"/>
       <c r="C74" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="E74" s="13"/>
       <c r="F74" s="13"/>
     </row>
-    <row r="75" spans="1:6" s="16" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" s="16" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A75" s="21">
         <v>74</v>
       </c>
       <c r="B75" s="13"/>
       <c r="C75" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D75" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="E75" s="13"/>
       <c r="F75" s="13"/>
     </row>
-    <row r="76" spans="1:6" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" s="16" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A76" s="21">
         <v>75</v>
       </c>
       <c r="B76" s="13"/>
       <c r="C76" s="20" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E76" s="13"/>
       <c r="F76" s="13"/>
     </row>
-    <row r="77" spans="1:6" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" s="16" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A77" s="21">
         <v>76</v>
       </c>
       <c r="B77" s="13"/>
       <c r="C77" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E77" s="13"/>
       <c r="F77" s="13"/>
     </row>
-    <row r="78" spans="1:6" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" s="16" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A78" s="21">
         <v>77</v>
       </c>
       <c r="B78" s="13"/>
       <c r="C78" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E78" s="13"/>
       <c r="F78" s="13"/>
     </row>
-    <row r="79" spans="1:6" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" s="16" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A79" s="21">
         <v>78</v>
       </c>
       <c r="B79" s="13"/>
       <c r="C79" s="20" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E79" s="13"/>
       <c r="F79" s="13"/>
     </row>
-    <row r="80" spans="1:6" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" s="16" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A80" s="21">
         <v>79</v>
       </c>
       <c r="B80" s="13"/>
       <c r="C80" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E80" s="13"/>
       <c r="F80" s="13"/>
     </row>
-    <row r="81" spans="1:6" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" s="16" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A81" s="21">
         <v>80</v>
       </c>
       <c r="B81" s="13"/>
       <c r="C81" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E81" s="13"/>
       <c r="F81" s="13"/>
     </row>
-    <row r="82" spans="1:6" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" s="16" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A82" s="21">
         <v>81</v>
       </c>
       <c r="B82" s="13"/>
       <c r="C82" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E82" s="13"/>
       <c r="F82" s="13"/>
     </row>
-    <row r="83" spans="1:6" s="16" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" s="16" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A83" s="21">
         <v>82</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C83" s="19" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D83" s="13" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E83" s="13"/>
       <c r="F83" s="13" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" s="16" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A84" s="21">
         <v>83</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C84" s="19" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D84" s="13" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E84" s="13"/>
       <c r="F84" s="13" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" s="16" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" s="16" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A85" s="21">
         <v>84</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C85" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D85" s="13" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E85" s="13"/>
       <c r="F85" s="13" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" s="16" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" s="16" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A86" s="21">
         <v>85</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C86" s="19" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D86" s="13" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="E86" s="13"/>
       <c r="F86" s="13" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" s="16" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" s="16" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A87" s="21">
         <v>86</v>
       </c>
       <c r="B87" s="13" t="s">
+        <v>440</v>
+      </c>
+      <c r="C87" s="19" t="s">
+        <v>441</v>
+      </c>
+      <c r="D87" s="13" t="s">
         <v>443</v>
-      </c>
-      <c r="C87" s="19" t="s">
-        <v>444</v>
-      </c>
-      <c r="D87" s="13" t="s">
-        <v>446</v>
       </c>
       <c r="E87" s="13"/>
       <c r="F87" s="13" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" s="16" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" s="16" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A88" s="21">
         <v>87</v>
       </c>
       <c r="B88" s="13"/>
       <c r="C88" s="19" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D88" s="13" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E88" s="13"/>
       <c r="F88" s="13"/>
     </row>
-    <row r="89" spans="1:6" s="16" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" s="16" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A89" s="21">
         <v>88</v>
       </c>
       <c r="B89" s="13"/>
       <c r="C89" s="19" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D89" s="13" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E89" s="13"/>
       <c r="F89" s="13"/>
     </row>
-    <row r="90" spans="1:6" s="16" customFormat="1" ht="57" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" s="16" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A90" s="21">
         <v>89</v>
       </c>
       <c r="B90" s="13"/>
       <c r="C90" s="19" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D90" s="13" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="E90" s="13"/>
       <c r="F90" s="13"/>
     </row>
-    <row r="91" spans="1:6" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" s="16" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A91" s="21">
         <v>90</v>
       </c>
       <c r="B91" s="13"/>
       <c r="C91" s="20" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E91" s="13"/>
       <c r="F91" s="13"/>
     </row>
-    <row r="92" spans="1:6" s="16" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" s="16" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A92" s="21">
         <v>91</v>
       </c>
       <c r="B92" s="13"/>
       <c r="C92" s="19" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D92" s="13" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E92" s="13"/>
       <c r="F92" s="13" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" s="16" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" s="16" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A93" s="21">
         <v>92</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C93" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D93" s="13" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E93" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F93" s="13"/>
     </row>
-    <row r="94" spans="1:6" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" s="16" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A94" s="21">
         <v>93</v>
       </c>
       <c r="B94" s="13"/>
       <c r="C94" s="19" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D94" s="13" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E94" s="13"/>
       <c r="F94" s="13"/>
     </row>
-    <row r="95" spans="1:6" s="16" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" s="16" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A95" s="21">
         <v>94</v>
       </c>
       <c r="B95" s="13"/>
       <c r="C95" s="19" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D95" s="13" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E95" s="13"/>
       <c r="F95" s="13"/>
     </row>
-    <row r="96" spans="1:6" s="16" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" s="16" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A96" s="21">
         <v>95</v>
       </c>
       <c r="B96" s="13" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C96" s="19" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D96" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E96" s="13"/>
       <c r="F96" s="13"/>
     </row>
-    <row r="97" spans="1:6" s="16" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" s="16" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A97" s="21">
         <v>96</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C97" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D97" s="13" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="E97" s="13"/>
       <c r="F97" s="13" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" s="16" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A98" s="25">
         <v>97</v>
       </c>
       <c r="B98" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C98" s="26"/>
+        <v>36</v>
+      </c>
+      <c r="C98" s="26" t="s">
+        <v>472</v>
+      </c>
       <c r="D98" s="22" t="s">
         <v>8</v>
       </c>
       <c r="E98" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F98" s="27" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" s="16" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A99" s="25">
         <v>98</v>
       </c>
       <c r="B99" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C99" s="26"/>
+        <v>37</v>
+      </c>
+      <c r="C99" s="38" t="s">
+        <v>456</v>
+      </c>
       <c r="D99" s="22" t="s">
         <v>9</v>
       </c>
       <c r="E99" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F99" s="27"/>
     </row>
-    <row r="100" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" s="16" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A100" s="25">
         <v>99</v>
       </c>
       <c r="B100" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C100" s="26"/>
+        <v>38</v>
+      </c>
+      <c r="C100" s="26" t="s">
+        <v>455</v>
+      </c>
       <c r="D100" s="22" t="s">
         <v>10</v>
       </c>
       <c r="E100" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F100" s="27"/>
     </row>
-    <row r="101" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="25">
+    <row r="101" spans="1:7" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A101" s="31">
         <v>100</v>
       </c>
-      <c r="B101" s="22" t="s">
+      <c r="B101" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C101" s="33"/>
+      <c r="D101" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E101" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="F101" s="27"/>
+      <c r="G101" s="16" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A102" s="31">
+        <v>101</v>
+      </c>
+      <c r="B102" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C101" s="26"/>
-      <c r="D101" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="E101" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="F101" s="27"/>
-    </row>
-    <row r="102" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="33">
-        <v>101</v>
-      </c>
-      <c r="B102" s="34" t="s">
+      <c r="C102" s="33"/>
+      <c r="D102" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E102" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="F102" s="35" t="s">
+        <v>431</v>
+      </c>
+      <c r="G102" s="36" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A103" s="31">
+        <v>102</v>
+      </c>
+      <c r="B103" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="C102" s="35"/>
-      <c r="D102" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="E102" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="F102" s="37" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="33">
-        <v>102</v>
-      </c>
-      <c r="B103" s="34" t="s">
+      <c r="C103" s="33"/>
+      <c r="D103" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E103" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="F103" s="35"/>
+      <c r="G103" s="36" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A104" s="31">
+        <v>103</v>
+      </c>
+      <c r="B104" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="C103" s="35"/>
-      <c r="D103" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="E103" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="F103" s="37"/>
-    </row>
-    <row r="104" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="33">
-        <v>103</v>
-      </c>
-      <c r="B104" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="C104" s="35"/>
-      <c r="D104" s="34" t="s">
+      <c r="C104" s="33"/>
+      <c r="D104" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="E104" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="F104" s="37"/>
-    </row>
-    <row r="105" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E104" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="F104" s="35"/>
+      <c r="G104" s="36" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A105" s="25">
         <v>104</v>
       </c>
       <c r="B105" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C105" s="28"/>
       <c r="D105" s="22" t="s">
         <v>15</v>
       </c>
       <c r="E105" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F105" s="27"/>
-    </row>
-    <row r="106" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G105" s="16" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" s="16" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A106" s="25">
         <v>105</v>
       </c>
       <c r="B106" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C106" s="28"/>
+        <v>44</v>
+      </c>
+      <c r="C106" s="28" t="s">
+        <v>458</v>
+      </c>
       <c r="D106" s="22" t="s">
         <v>16</v>
       </c>
       <c r="E106" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F106" s="27"/>
     </row>
-    <row r="107" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" s="16" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A107" s="25">
         <v>106</v>
       </c>
       <c r="B107" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C107" s="28"/>
+        <v>45</v>
+      </c>
+      <c r="C107" s="28" t="s">
+        <v>460</v>
+      </c>
       <c r="D107" s="22" t="s">
-        <v>17</v>
+        <v>459</v>
       </c>
       <c r="E107" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F107" s="27"/>
     </row>
-    <row r="108" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A108" s="25">
         <v>107</v>
       </c>
       <c r="B108" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C108" s="28"/>
       <c r="D108" s="22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E108" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F108" s="27"/>
-    </row>
-    <row r="109" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G108" s="16" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A109" s="25">
         <v>108</v>
       </c>
       <c r="B109" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C109" s="28"/>
       <c r="D109" s="22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E109" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F109" s="27"/>
     </row>
-    <row r="110" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A110" s="25">
         <v>109</v>
       </c>
       <c r="B110" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C110" s="28"/>
       <c r="D110" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E110" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F110" s="27"/>
     </row>
-    <row r="111" spans="1:6" s="16" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" s="16" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A111" s="21">
         <v>110</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F111" s="13"/>
     </row>
-    <row r="112" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" s="16" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A112" s="25">
         <v>111</v>
       </c>
       <c r="B112" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C112" s="26"/>
+        <v>50</v>
+      </c>
+      <c r="C112" s="26" t="s">
+        <v>471</v>
+      </c>
       <c r="D112" s="22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E112" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F112" s="13"/>
     </row>
-    <row r="113" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" s="16" customFormat="1" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A113" s="25">
         <v>112</v>
       </c>
       <c r="B113" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C113" s="28"/>
+        <v>51</v>
+      </c>
+      <c r="C113" s="41" t="s">
+        <v>470</v>
+      </c>
       <c r="D113" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E113" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F113" s="13"/>
     </row>
-    <row r="114" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A114" s="25">
         <v>113</v>
       </c>
       <c r="B114" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C114" s="26"/>
       <c r="D114" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E114" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F114" s="13"/>
-    </row>
-    <row r="115" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G114" s="16" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A115" s="25">
         <v>114</v>
       </c>
       <c r="B115" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C115" s="26"/>
       <c r="D115" s="22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E115" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F115" s="13"/>
-    </row>
-    <row r="116" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G115" s="16" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A116" s="25">
         <v>115</v>
       </c>
       <c r="B116" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C116" s="26"/>
       <c r="D116" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E116" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F116" s="13"/>
-    </row>
-    <row r="117" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G116" s="16" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="21">
         <v>116</v>
       </c>
       <c r="B117" s="13"/>
       <c r="C117" s="19"/>
       <c r="D117" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E117" s="13"/>
       <c r="F117" s="13"/>
-    </row>
-    <row r="118" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G117" s="16" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" s="16" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A118" s="21">
         <v>117</v>
       </c>
       <c r="B118" s="13"/>
-      <c r="C118" s="19"/>
+      <c r="C118" s="40" t="s">
+        <v>467</v>
+      </c>
       <c r="D118" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E118" s="13"/>
       <c r="F118" s="13"/>
-    </row>
-    <row r="119" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G118" s="39" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" s="16" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A119" s="21">
         <v>118</v>
       </c>
       <c r="B119" s="13"/>
-      <c r="C119" s="19"/>
+      <c r="C119" s="19" t="s">
+        <v>468</v>
+      </c>
       <c r="D119" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E119" s="13"/>
       <c r="F119" s="13"/>
     </row>
-    <row r="120" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" s="16" customFormat="1" ht="69" x14ac:dyDescent="0.25">
       <c r="A120" s="21">
         <v>119</v>
       </c>
       <c r="B120" s="13"/>
-      <c r="C120" s="19"/>
+      <c r="C120" s="19" t="s">
+        <v>469</v>
+      </c>
       <c r="D120" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E120" s="13"/>
       <c r="F120" s="13"/>
     </row>
-    <row r="121" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" s="16" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A121" s="21">
         <v>120</v>
       </c>
       <c r="B121" s="13"/>
-      <c r="C121" s="19"/>
+      <c r="C121" s="19" t="s">
+        <v>468</v>
+      </c>
       <c r="D121" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E121" s="13"/>
       <c r="F121" s="13"/>
     </row>
-    <row r="122" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" s="16" customFormat="1" ht="69" x14ac:dyDescent="0.25">
       <c r="A122" s="21">
         <v>121</v>
       </c>
       <c r="B122" s="13"/>
-      <c r="C122" s="19"/>
+      <c r="C122" s="19" t="s">
+        <v>469</v>
+      </c>
       <c r="D122" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E122" s="13"/>
       <c r="F122" s="13"/>
     </row>
-    <row r="123" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" s="16" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A123" s="21">
         <v>122</v>
       </c>
       <c r="B123" s="13"/>
-      <c r="C123" s="19"/>
+      <c r="C123" s="19" t="s">
+        <v>468</v>
+      </c>
       <c r="D123" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E123" s="13"/>
       <c r="F123" s="13"/>
     </row>
   </sheetData>
-  <autoFilter ref="E1:E123"/>
+  <autoFilter ref="E1:E123" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C99" r:id="rId1" xr:uid="{C60ED756-13A4-4858-BBC9-8FB1BA442375}"/>
+    <hyperlink ref="G118" r:id="rId2" xr:uid="{0652BCA8-0AF7-4A8F-85FA-7AD34380C5F3}"/>
+    <hyperlink ref="C118" r:id="rId3" xr:uid="{1AB3031F-AC62-4E9E-B1C9-733D0FF58169}"/>
+    <hyperlink ref="C113" r:id="rId4" xr:uid="{26C315A3-B143-4387-BA53-F697A19F5787}"/>
+    <hyperlink ref="C42" r:id="rId5" xr:uid="{7C89B968-0A85-4789-8D63-3177C4199A1B}"/>
+    <hyperlink ref="C43" r:id="rId6" xr:uid="{E99EFAEE-4B62-4458-A53B-8BB8F2674647}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="D88" sqref="D88"/>
+    <sheetView topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="G82" sqref="G82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.25" customWidth="1"/>
-    <col min="3" max="3" width="59.5" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" customWidth="1"/>
+    <col min="3" max="3" width="71.77734375" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="21.375" customWidth="1"/>
-    <col min="6" max="6" width="16.875" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4280,10 +4465,10 @@
         <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -4296,1278 +4481,1284 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="15">
         <v>1</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="9" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <v>2</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="13" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
         <v>3</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="13" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>4</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="13" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>5</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="13" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>6</v>
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="13" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>7</v>
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="13" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>8</v>
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="13" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>9</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="13" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>10</v>
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>11</v>
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="13" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>12</v>
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="9" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>13</v>
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="9" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <v>14</v>
       </c>
       <c r="B15" s="13"/>
       <c r="C15" s="3" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <v>15</v>
       </c>
       <c r="B16" s="13"/>
       <c r="C16" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
         <v>16</v>
       </c>
       <c r="B17" s="13"/>
       <c r="C17" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <v>17</v>
       </c>
       <c r="B18" s="13"/>
       <c r="C18" s="13" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
         <v>18</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="13" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>19</v>
       </c>
       <c r="B20" s="13"/>
       <c r="C20" s="9" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
         <v>20</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E21" s="13"/>
       <c r="F21" s="13" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" ht="41.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>21</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>22</v>
       </c>
       <c r="B23" s="13"/>
       <c r="C23" s="9" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <v>23</v>
       </c>
       <c r="B24" s="13"/>
       <c r="C24" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <v>24</v>
       </c>
       <c r="B25" s="13"/>
       <c r="C25" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
         <v>25</v>
       </c>
       <c r="B26" s="13"/>
       <c r="C26" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <v>26</v>
       </c>
       <c r="B27" s="13"/>
       <c r="C27" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>27</v>
       </c>
       <c r="B28" s="13"/>
       <c r="C28" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <v>28</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <v>29</v>
       </c>
       <c r="B30" s="13"/>
       <c r="C30" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
         <v>30</v>
       </c>
       <c r="B31" s="13"/>
       <c r="C31" s="8" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
         <v>31</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F32" s="13"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A33" s="15">
         <v>32</v>
       </c>
       <c r="B33" s="13"/>
       <c r="C33" s="11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A34" s="15">
         <v>33</v>
       </c>
       <c r="B34" s="13"/>
       <c r="C34" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E34" s="13"/>
       <c r="F34" s="13"/>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A35" s="15">
         <v>34</v>
       </c>
       <c r="B35" s="13"/>
       <c r="C35" s="11" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E35" s="13"/>
       <c r="F35" s="13"/>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A36" s="15">
         <v>35</v>
       </c>
       <c r="B36" s="13"/>
       <c r="C36" s="11" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E36" s="13"/>
       <c r="F36" s="13"/>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A37" s="15">
         <v>36</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F37" s="13"/>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A38" s="15">
         <v>37</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F38" s="13"/>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
         <v>38</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F39" s="13"/>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A40" s="15">
         <v>39</v>
       </c>
       <c r="B40" s="13"/>
       <c r="C40" s="5" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E40" s="13"/>
       <c r="F40" s="13"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A41" s="15">
         <v>40</v>
       </c>
       <c r="B41" s="13"/>
       <c r="C41" s="8" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E41" s="13"/>
       <c r="F41" s="13"/>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A42" s="15">
         <v>41</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F42" s="13"/>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A43" s="15">
         <v>42</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F43" s="13"/>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A44" s="15">
         <v>43</v>
       </c>
       <c r="B44" s="13"/>
       <c r="C44" s="11" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E44" s="13"/>
       <c r="F44" s="13"/>
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A45" s="15">
         <v>44</v>
       </c>
       <c r="B45" s="13"/>
       <c r="C45" s="11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E45" s="13"/>
       <c r="F45" s="13"/>
       <c r="G45" s="2"/>
     </row>
-    <row r="46" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A46" s="15">
         <v>45</v>
       </c>
       <c r="B46" s="13"/>
       <c r="C46" s="11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E46" s="13"/>
       <c r="F46" s="13"/>
       <c r="G46" s="2"/>
     </row>
-    <row r="47" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A47" s="15">
         <v>46</v>
       </c>
       <c r="B47" s="13"/>
       <c r="C47" s="8" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E47" s="13"/>
       <c r="F47" s="13"/>
       <c r="G47" s="2"/>
     </row>
-    <row r="48" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A48" s="15">
         <v>47</v>
       </c>
       <c r="B48" s="13"/>
       <c r="C48" s="5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E48" s="13"/>
       <c r="F48" s="13"/>
       <c r="G48" s="2"/>
     </row>
-    <row r="49" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A49" s="15">
         <v>48</v>
       </c>
       <c r="B49" s="13"/>
       <c r="C49" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E49" s="13"/>
       <c r="F49" s="13"/>
       <c r="G49" s="2"/>
     </row>
-    <row r="50" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A50" s="15">
         <v>49</v>
       </c>
       <c r="B50" s="13"/>
       <c r="C50" s="8" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E50" s="13"/>
       <c r="F50" s="13"/>
       <c r="G50" s="2"/>
     </row>
-    <row r="51" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A51" s="15">
         <v>50</v>
       </c>
       <c r="B51" s="13"/>
       <c r="C51" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E51" s="13"/>
       <c r="F51" s="13"/>
       <c r="G51" s="2"/>
     </row>
-    <row r="52" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A52" s="15">
         <v>51</v>
       </c>
       <c r="B52" s="13"/>
       <c r="C52" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E52" s="13"/>
       <c r="F52" s="13"/>
       <c r="G52" s="2"/>
     </row>
-    <row r="53" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A53" s="15">
         <v>52</v>
       </c>
       <c r="B53" s="13"/>
       <c r="C53" s="8" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E53" s="13"/>
       <c r="F53" s="13"/>
       <c r="G53" s="2"/>
     </row>
-    <row r="54" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="15">
         <v>53</v>
       </c>
       <c r="B54" s="13"/>
       <c r="C54" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E54" s="13"/>
       <c r="F54" s="13"/>
       <c r="G54" s="2"/>
     </row>
-    <row r="55" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A55" s="15">
         <v>54</v>
       </c>
       <c r="B55" s="13"/>
       <c r="C55" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E55" s="13"/>
       <c r="F55" s="13" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G55" s="2"/>
     </row>
-    <row r="56" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A56" s="15">
         <v>55</v>
       </c>
       <c r="B56" s="13"/>
       <c r="C56" s="11" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E56" s="13"/>
       <c r="F56" s="13"/>
       <c r="G56" s="2"/>
     </row>
-    <row r="57" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A57" s="15">
         <v>56</v>
       </c>
       <c r="B57" s="13"/>
       <c r="C57" s="11" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E57" s="13"/>
       <c r="F57" s="13"/>
       <c r="G57" s="2"/>
     </row>
-    <row r="58" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A58" s="15">
         <v>57</v>
       </c>
       <c r="B58" s="13"/>
       <c r="C58" s="11" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E58" s="13"/>
       <c r="F58" s="13"/>
       <c r="G58" s="2"/>
     </row>
-    <row r="59" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A59" s="15">
         <v>58</v>
       </c>
       <c r="B59" s="13"/>
       <c r="C59" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E59" s="13"/>
       <c r="F59" s="13" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G59" s="2"/>
     </row>
-    <row r="60" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A60" s="15">
         <v>59</v>
       </c>
       <c r="B60" s="13"/>
       <c r="C60" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E60" s="13"/>
       <c r="F60" s="13"/>
       <c r="G60" s="2"/>
     </row>
-    <row r="61" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A61" s="15">
         <v>60</v>
       </c>
       <c r="B61" s="13"/>
       <c r="C61" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E61" s="13"/>
       <c r="F61" s="13"/>
       <c r="G61" s="2"/>
     </row>
-    <row r="62" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A62" s="15">
         <v>61</v>
       </c>
       <c r="B62" s="13"/>
       <c r="C62" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E62" s="13"/>
       <c r="F62" s="13"/>
       <c r="G62" s="2"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="15">
         <v>62</v>
       </c>
       <c r="B63" s="13"/>
       <c r="C63" s="9" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E63" s="13"/>
       <c r="F63" s="13"/>
       <c r="G63" s="2"/>
     </row>
-    <row r="64" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="15">
         <v>63</v>
       </c>
       <c r="B64" s="13"/>
       <c r="C64" s="10" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E64" s="13"/>
       <c r="F64" s="13"/>
       <c r="G64" s="2"/>
     </row>
-    <row r="65" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="15">
         <v>64</v>
       </c>
       <c r="B65" s="13"/>
       <c r="C65" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E65" s="13"/>
       <c r="F65" s="13" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G65" s="2"/>
     </row>
-    <row r="66" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="15">
         <v>65</v>
       </c>
       <c r="B66" s="13"/>
       <c r="C66" s="11" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E66" s="13"/>
       <c r="F66" s="13"/>
       <c r="G66" s="2"/>
     </row>
-    <row r="67" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="15">
         <v>66</v>
       </c>
       <c r="B67" s="13"/>
       <c r="C67" s="11" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E67" s="13"/>
       <c r="F67" s="13"/>
       <c r="G67" s="2"/>
     </row>
-    <row r="68" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="15">
         <v>67</v>
       </c>
       <c r="B68" s="13"/>
       <c r="C68" s="11" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E68" s="13"/>
       <c r="F68" s="13" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G68" s="2"/>
     </row>
-    <row r="69" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="15">
         <v>68</v>
       </c>
       <c r="B69" s="13"/>
       <c r="C69" s="11" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E69" s="13"/>
       <c r="F69" s="13"/>
       <c r="G69" s="2"/>
     </row>
-    <row r="70" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="15">
         <v>69</v>
       </c>
       <c r="B70" s="13"/>
       <c r="C70" s="10" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E70" s="13"/>
       <c r="F70" s="13"/>
       <c r="G70" s="2"/>
     </row>
-    <row r="71" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="15">
         <v>70</v>
       </c>
       <c r="B71" s="13"/>
       <c r="C71" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E71" s="13"/>
       <c r="F71" s="13" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G71" s="2"/>
     </row>
-    <row r="72" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A72" s="15">
         <v>71</v>
       </c>
       <c r="B72" s="13"/>
       <c r="C72" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E72" s="13"/>
       <c r="F72" s="13"/>
       <c r="G72" s="2"/>
     </row>
-    <row r="73" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A73" s="15">
         <v>72</v>
       </c>
       <c r="B73" s="13"/>
       <c r="C73" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D73" s="4" t="s">
         <v>164</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>167</v>
       </c>
       <c r="E73" s="13"/>
       <c r="F73" s="13"/>
       <c r="G73" s="2"/>
     </row>
-    <row r="74" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A74" s="15">
         <v>73</v>
       </c>
       <c r="B74" s="13"/>
       <c r="C74" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E74" s="13"/>
       <c r="F74" s="13" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G74" s="2"/>
     </row>
-    <row r="75" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A75" s="15">
         <v>74</v>
       </c>
       <c r="B75" s="13"/>
       <c r="C75" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E75" s="13"/>
       <c r="F75" s="13"/>
       <c r="G75" s="2"/>
     </row>
-    <row r="76" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A76" s="15">
         <v>75</v>
       </c>
       <c r="B76" s="13"/>
       <c r="C76" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E76" s="13"/>
       <c r="F76" s="13"/>
       <c r="G76" s="2"/>
     </row>
-    <row r="77" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A77" s="15">
         <v>76</v>
       </c>
       <c r="B77" s="13"/>
       <c r="C77" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E77" s="13"/>
       <c r="F77" s="13"/>
       <c r="G77" s="2"/>
     </row>
-    <row r="78" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A78" s="15">
         <v>77</v>
       </c>
       <c r="B78" s="13"/>
       <c r="C78" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E78" s="13"/>
       <c r="F78" s="13"/>
       <c r="G78" s="2"/>
     </row>
-    <row r="79" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A79" s="15">
         <v>78</v>
       </c>
       <c r="B79" s="13"/>
       <c r="C79" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E79" s="13"/>
       <c r="F79" s="13"/>
       <c r="G79" s="2"/>
     </row>
-    <row r="80" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A80" s="15">
         <v>79</v>
       </c>
       <c r="B80" s="13"/>
       <c r="C80" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E80" s="13"/>
       <c r="F80" s="13"/>
       <c r="G80" s="2"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A81" s="15">
         <v>80</v>
       </c>
       <c r="B81" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="C81" s="23"/>
+        <v>33</v>
+      </c>
+      <c r="C81" s="37" t="s">
+        <v>216</v>
+      </c>
       <c r="D81" s="23" t="s">
         <v>6</v>
       </c>
       <c r="E81" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F81" s="7"/>
-      <c r="G81" s="2"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G81" s="2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A82" s="15">
         <v>81</v>
       </c>
       <c r="B82" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C82" s="23"/>
+        <v>34</v>
+      </c>
+      <c r="C82" s="37" t="s">
+        <v>452</v>
+      </c>
       <c r="D82" s="23" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E82" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F82" s="7"/>
       <c r="G82" s="2"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="15"/>
       <c r="B83" s="13"/>
       <c r="C83" s="3"/>
@@ -5577,8 +5768,9 @@
       <c r="G83" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="E1:E83"/>
+  <autoFilter ref="E1:E83" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>